--- a/opm_hero_property/heroes/31.xlsx
+++ b/opm_hero_property/heroes/31.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1197,7 +1198,7 @@
         <v>11115</v>
       </c>
       <c r="D4" t="n">
-        <v>11115</v>
+        <v>11656</v>
       </c>
       <c r="E4" t="n">
         <v>244</v>
@@ -1304,7 +1305,7 @@
         <v>12379</v>
       </c>
       <c r="D5" t="n">
-        <v>12379</v>
+        <v>13532</v>
       </c>
       <c r="E5" t="n">
         <v>366</v>
@@ -1411,7 +1412,7 @@
         <v>13866</v>
       </c>
       <c r="D6" t="n">
-        <v>13866</v>
+        <v>15740</v>
       </c>
       <c r="E6" t="n">
         <v>501</v>
@@ -1518,7 +1519,7 @@
         <v>15576</v>
       </c>
       <c r="D7" t="n">
-        <v>15576</v>
+        <v>20348</v>
       </c>
       <c r="E7" t="n">
         <v>940</v>
@@ -1625,7 +1626,7 @@
         <v>17508</v>
       </c>
       <c r="D8" t="n">
-        <v>17508</v>
+        <v>26722</v>
       </c>
       <c r="E8" t="n">
         <v>1392</v>
@@ -1732,7 +1733,7 @@
         <v>19739</v>
       </c>
       <c r="D9" t="n">
-        <v>19739</v>
+        <v>35304</v>
       </c>
       <c r="E9" t="n">
         <v>1838</v>
@@ -1839,7 +1840,7 @@
         <v>20928</v>
       </c>
       <c r="D10" t="n">
-        <v>20928</v>
+        <v>42450</v>
       </c>
       <c r="E10" t="n">
         <v>2172</v>
@@ -1946,7 +1947,7 @@
         <v>22341</v>
       </c>
       <c r="D11" t="n">
-        <v>22341</v>
+        <v>51225</v>
       </c>
       <c r="E11" t="n">
         <v>2534</v>
@@ -2053,7 +2054,7 @@
         <v>25314</v>
       </c>
       <c r="D12" t="n">
-        <v>25314</v>
+        <v>66843</v>
       </c>
       <c r="E12" t="n">
         <v>3119</v>
@@ -2160,7 +2161,7 @@
         <v>25909</v>
       </c>
       <c r="D13" t="n">
-        <v>25909</v>
+        <v>69051</v>
       </c>
       <c r="E13" t="n">
         <v>3509</v>
@@ -2267,7 +2268,7 @@
         <v>26504</v>
       </c>
       <c r="D14" t="n">
-        <v>26504</v>
+        <v>71258</v>
       </c>
       <c r="E14" t="n">
         <v>3899</v>
@@ -2374,7 +2375,7 @@
         <v>27099</v>
       </c>
       <c r="D15" t="n">
-        <v>27099</v>
+        <v>73466</v>
       </c>
       <c r="E15" t="n">
         <v>4289</v>
@@ -2481,7 +2482,7 @@
         <v>27693</v>
       </c>
       <c r="D16" t="n">
-        <v>27693</v>
+        <v>75673</v>
       </c>
       <c r="E16" t="n">
         <v>4678</v>
@@ -2588,7 +2589,7 @@
         <v>28288</v>
       </c>
       <c r="D17" t="n">
-        <v>28288</v>
+        <v>77881</v>
       </c>
       <c r="E17" t="n">
         <v>5068</v>
@@ -6534,4 +6535,2652 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>31</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>35678.5440312</v>
+      </c>
+      <c r="U2" t="n">
+        <v>4247.923968300001</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2580.28817</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X2" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1750</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>31</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>48252.24978319999</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6529.8517996</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3822.25967</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X3" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1750</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>31</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>84034.56803960001</v>
+      </c>
+      <c r="U4" t="n">
+        <v>11984.4749</v>
+      </c>
+      <c r="V4" t="n">
+        <v>7957.3905</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X4" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1750</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>31</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>84034.56803960001</v>
+      </c>
+      <c r="U5" t="n">
+        <v>11984.4749</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7957.3905</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X5" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1820</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>31</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>73562.50129160001</v>
+      </c>
+      <c r="U6" t="n">
+        <v>10960.3379</v>
+      </c>
+      <c r="V6" t="n">
+        <v>7281.6255</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X6" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>31</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>298887.8380746</v>
+      </c>
+      <c r="U7" t="n">
+        <v>43239.421088</v>
+      </c>
+      <c r="V7" t="n">
+        <v>34148.1437155</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X7" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>31</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>251204.0567766</v>
+      </c>
+      <c r="U8" t="n">
+        <v>38923.991648</v>
+      </c>
+      <c r="V8" t="n">
+        <v>30537.4757005</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X8" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>31</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>267098.6505426</v>
+      </c>
+      <c r="U9" t="n">
+        <v>40362.468128</v>
+      </c>
+      <c r="V9" t="n">
+        <v>31741.0317055</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X9" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>2260</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>31</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>282993.2443086</v>
+      </c>
+      <c r="U10" t="n">
+        <v>41800.944608</v>
+      </c>
+      <c r="V10" t="n">
+        <v>32944.5877105</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X10" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>2510</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>31</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>298887.8380746</v>
+      </c>
+      <c r="U11" t="n">
+        <v>43239.421088</v>
+      </c>
+      <c r="V11" t="n">
+        <v>34148.1437155</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X11" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>31</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>298887.8380746</v>
+      </c>
+      <c r="U12" t="n">
+        <v>43239.421088</v>
+      </c>
+      <c r="V12" t="n">
+        <v>34148.1437155</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X12" t="n">
+        <v>860</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>2690</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>31</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>443510.09828</v>
+      </c>
+      <c r="U13" t="n">
+        <v>64056.6704512</v>
+      </c>
+      <c r="V13" t="n">
+        <v>58044.659202</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>2830</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>31</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>443510.09828</v>
+      </c>
+      <c r="U14" t="n">
+        <v>64056.6704512</v>
+      </c>
+      <c r="V14" t="n">
+        <v>58044.659202</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1070</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>2900</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>31</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>1089526.0284677</v>
+      </c>
+      <c r="U15" t="n">
+        <v>149462.3446122</v>
+      </c>
+      <c r="V15" t="n">
+        <v>167593.1745</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>3180</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>31</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>5541166.0917912</v>
+      </c>
+      <c r="U16" t="n">
+        <v>821806.2596368</v>
+      </c>
+      <c r="V16" t="n">
+        <v>823296.5998985</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1910</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>3740</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>31</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>9068489.378939599</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1340083.5597072</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1340484.907302</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2820</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>4650</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>31</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>231815.2046249</v>
+      </c>
+      <c r="U18" t="n">
+        <v>40753.4391168</v>
+      </c>
+      <c r="V18" t="n">
+        <v>27456.0623</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X18" t="n">
+        <v>470</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>31</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>323204.2665354</v>
+      </c>
+      <c r="U19" t="n">
+        <v>51182.4300113</v>
+      </c>
+      <c r="V19" t="n">
+        <v>39116.28152500001</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X19" t="n">
+        <v>860</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>2190</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>31</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>421169.1144754</v>
+      </c>
+      <c r="U20" t="n">
+        <v>63608.0313843</v>
+      </c>
+      <c r="V20" t="n">
+        <v>55441.0769435</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X20" t="n">
+        <v>930</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>2510</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>31</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>493254.03706</v>
+      </c>
+      <c r="U21" t="n">
+        <v>73314.1061776</v>
+      </c>
+      <c r="V21" t="n">
+        <v>66558.892289</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1070</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>2900</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>31</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>569412.9736299999</v>
+      </c>
+      <c r="U22" t="n">
+        <v>86311.52018390001</v>
+      </c>
+      <c r="V22" t="n">
+        <v>82301.3549835</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>3180</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>31</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>725502.1365124</v>
+      </c>
+      <c r="U23" t="n">
+        <v>113024.6163216</v>
+      </c>
+      <c r="V23" t="n">
+        <v>114170.7835705</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1910</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>3740</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/31.xlsx
+++ b/opm_hero_property/heroes/31.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6737,6 +6737,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6745,31 +6785,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -6781,106 +6821,130 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>35678.5440312</v>
+        <v>5676043.0917912</v>
       </c>
       <c r="U2" t="n">
-        <v>4247.923968300001</v>
+        <v>845534.2596368</v>
       </c>
       <c r="V2" t="n">
-        <v>2580.28817</v>
+        <v>845136.5998985</v>
       </c>
       <c r="W2" t="n">
-        <v>1300</v>
+        <v>1940</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>1910</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>3740</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>400</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1600</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1750</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>81</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>11599639.496285</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>2180389.636416495</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2010530</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>16385722.4327015</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -6892,73 +6956,97 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>48252.24978319999</v>
+        <v>725502.1365124</v>
       </c>
       <c r="U3" t="n">
-        <v>6529.8517996</v>
+        <v>113024.6163216</v>
       </c>
       <c r="V3" t="n">
-        <v>3822.25967</v>
+        <v>114170.7835705</v>
       </c>
       <c r="W3" t="n">
-        <v>1300</v>
+        <v>1940</v>
       </c>
       <c r="X3" t="n">
-        <v>400</v>
+        <v>1910</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="AA3" t="n">
-        <v>1600</v>
+        <v>2880</v>
       </c>
       <c r="AB3" t="n">
-        <v>1750</v>
+        <v>3740</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>1315078.364445</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>247958.280216815</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>431854.8</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2177811.494661815</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6967,16 +7055,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6985,10 +7073,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7003,10 +7091,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7017,50 +7105,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>84034.56803960001</v>
+        <v>7739.552799999999</v>
       </c>
       <c r="U4" t="n">
-        <v>11984.4749</v>
+        <v>1541.9754</v>
       </c>
       <c r="V4" t="n">
-        <v>7957.3905</v>
+        <v>626.414</v>
       </c>
       <c r="W4" t="n">
-        <v>1300</v>
+        <v>550</v>
       </c>
       <c r="X4" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="n">
-        <v>1600</v>
+        <v>320</v>
       </c>
       <c r="AB4" t="n">
-        <v>1750</v>
+        <v>200</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7070,6 +7158,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>19211.66356</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4498.9</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>23710.56356</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7078,16 +7190,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7096,13 +7208,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7114,10 +7226,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7128,59 +7240,83 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>84034.56803960001</v>
+        <v>20678.4408</v>
       </c>
       <c r="U5" t="n">
-        <v>11984.4749</v>
+        <v>3842.5448</v>
       </c>
       <c r="V5" t="n">
-        <v>7957.3905</v>
+        <v>1923.714</v>
       </c>
       <c r="W5" t="n">
-        <v>1300</v>
+        <v>638</v>
       </c>
       <c r="X5" t="n">
-        <v>470</v>
+        <v>160</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>640</v>
+      </c>
+      <c r="AB5" t="n">
         <v>400</v>
       </c>
-      <c r="AA5" t="n">
-        <v>1600</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1820</v>
-      </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>49043.25542</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11906.8</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>60950.05542</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7204,16 +7340,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7235,39 +7371,39 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>73562.50129160001</v>
+        <v>59213.43240000001</v>
       </c>
       <c r="U6" t="n">
-        <v>10960.3379</v>
+        <v>9586.200000000001</v>
       </c>
       <c r="V6" t="n">
-        <v>7281.6255</v>
+        <v>6259.1</v>
       </c>
       <c r="W6" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="X6" t="n">
-        <v>470</v>
+        <v>300</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AA6" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="AB6" t="n">
-        <v>1070</v>
+        <v>750</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7282,16 +7418,40 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>117859.5374</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9157</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>165915.5374</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7300,31 +7460,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7336,10 +7496,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7350,59 +7510,83 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>298887.8380746</v>
+        <v>59213.43240000001</v>
       </c>
       <c r="U7" t="n">
-        <v>43239.421088</v>
+        <v>9586.200000000001</v>
       </c>
       <c r="V7" t="n">
-        <v>34148.1437155</v>
+        <v>6259.1</v>
       </c>
       <c r="W7" t="n">
-        <v>1940</v>
+        <v>900</v>
       </c>
       <c r="X7" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AA7" t="n">
-        <v>2880</v>
+        <v>1200</v>
       </c>
       <c r="AB7" t="n">
-        <v>2760</v>
+        <v>820</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>117859.5374</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9395</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>166153.5374</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7411,31 +7595,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7447,10 +7631,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -7461,59 +7645,83 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>251204.0567766</v>
+        <v>59562.50129160001</v>
       </c>
       <c r="U8" t="n">
-        <v>38923.991648</v>
+        <v>9620.3379</v>
       </c>
       <c r="V8" t="n">
-        <v>30537.4757005</v>
+        <v>6281.6255</v>
       </c>
       <c r="W8" t="n">
-        <v>1940</v>
+        <v>900</v>
       </c>
       <c r="X8" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AA8" t="n">
-        <v>2880</v>
+        <v>1200</v>
       </c>
       <c r="AB8" t="n">
-        <v>2010</v>
+        <v>820</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>117859.5374</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>714.1420266000002</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9395</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>166867.6794266</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7537,7 +7745,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -7546,7 +7754,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7568,21 +7776,21 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>267098.6505426</v>
+        <v>248825.5974</v>
       </c>
       <c r="U9" t="n">
-        <v>40362.468128</v>
+        <v>38937.144</v>
       </c>
       <c r="V9" t="n">
-        <v>31741.0317055</v>
+        <v>30544.1201</v>
       </c>
       <c r="W9" t="n">
         <v>1940</v>
@@ -7600,7 +7808,7 @@
         <v>2880</v>
       </c>
       <c r="AB9" t="n">
-        <v>2260</v>
+        <v>2010</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7618,13 +7826,37 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>536406.9315750001</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>38746</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>704433.5815750001</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7648,7 +7880,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -7657,7 +7889,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -7679,21 +7911,21 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>282993.2443086</v>
+        <v>250415.0567766</v>
       </c>
       <c r="U10" t="n">
-        <v>41800.944608</v>
+        <v>39080.991648</v>
       </c>
       <c r="V10" t="n">
-        <v>32944.5877105</v>
+        <v>30664.4757005</v>
       </c>
       <c r="W10" t="n">
         <v>1940</v>
@@ -7711,7 +7943,7 @@
         <v>2880</v>
       </c>
       <c r="AB10" t="n">
-        <v>2510</v>
+        <v>2010</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -7729,13 +7961,37 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="n">
+        <v>536406.9315750001</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3274.052850675</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>38746</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>707707.634425675</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7759,7 +8015,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -7768,7 +8024,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -7790,21 +8046,21 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>298887.8380746</v>
+        <v>266309.6505426</v>
       </c>
       <c r="U11" t="n">
-        <v>43239.421088</v>
+        <v>40519.468128</v>
       </c>
       <c r="V11" t="n">
-        <v>34148.1437155</v>
+        <v>31868.0317055</v>
       </c>
       <c r="W11" t="n">
         <v>1940</v>
@@ -7822,7 +8078,7 @@
         <v>2880</v>
       </c>
       <c r="AB11" t="n">
-        <v>2760</v>
+        <v>2260</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -7840,13 +8096,37 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>536406.9315750001</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>36452.081357425</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>38746</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>740885.662932425</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7870,13 +8150,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -7901,27 +8181,27 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>298887.8380746</v>
+        <v>282204.2443086</v>
       </c>
       <c r="U12" t="n">
-        <v>43239.421088</v>
+        <v>41957.944608</v>
       </c>
       <c r="V12" t="n">
-        <v>34148.1437155</v>
+        <v>33071.5877105</v>
       </c>
       <c r="W12" t="n">
         <v>1940</v>
       </c>
       <c r="X12" t="n">
-        <v>860</v>
+        <v>930</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
@@ -7933,7 +8213,7 @@
         <v>2880</v>
       </c>
       <c r="AB12" t="n">
-        <v>2690</v>
+        <v>2510</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -7948,7 +8228,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -7958,6 +8238,30 @@
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>536406.9315750001</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>69630.109864175</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>38746</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>774063.691439175</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7966,10 +8270,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -7984,13 +8288,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8002,10 +8306,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8016,23 +8320,23 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>443510.09828</v>
+        <v>298098.8380746</v>
       </c>
       <c r="U13" t="n">
-        <v>64056.6704512</v>
+        <v>43396.421088</v>
       </c>
       <c r="V13" t="n">
-        <v>58044.659202</v>
+        <v>34275.1437155</v>
       </c>
       <c r="W13" t="n">
         <v>1940</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>930</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
@@ -8044,31 +8348,55 @@
         <v>2880</v>
       </c>
       <c r="AB13" t="n">
-        <v>2830</v>
+        <v>2760</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>536406.9315750001</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>102808.138370925</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>38746</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>807241.7199459249</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8077,10 +8405,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8095,13 +8423,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8113,10 +8441,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8127,23 +8455,23 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>443510.09828</v>
+        <v>298098.8380746</v>
       </c>
       <c r="U14" t="n">
-        <v>64056.6704512</v>
+        <v>43396.421088</v>
       </c>
       <c r="V14" t="n">
-        <v>58044.659202</v>
+        <v>34275.1437155</v>
       </c>
       <c r="W14" t="n">
         <v>1940</v>
       </c>
       <c r="X14" t="n">
-        <v>1070</v>
+        <v>860</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
@@ -8155,31 +8483,55 @@
         <v>2880</v>
       </c>
       <c r="AB14" t="n">
-        <v>2900</v>
+        <v>2690</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>536406.9315750001</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>102808.138370925</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>38508</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>807003.7199459249</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8188,10 +8540,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8206,13 +8558,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8224,10 +8576,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8238,23 +8590,23 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1089526.0284677</v>
+        <v>446010.09828</v>
       </c>
       <c r="U15" t="n">
-        <v>149462.3446122</v>
+        <v>64864.6704512</v>
       </c>
       <c r="V15" t="n">
-        <v>167593.1745</v>
+        <v>58818.659202</v>
       </c>
       <c r="W15" t="n">
         <v>1940</v>
       </c>
       <c r="X15" t="n">
-        <v>1350</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
@@ -8266,31 +8618,55 @@
         <v>2880</v>
       </c>
       <c r="AB15" t="n">
-        <v>3180</v>
+        <v>2830</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>828489.0359400001</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>157316.27886478</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>111462</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1244647.11480478</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8299,10 +8675,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8317,13 +8693,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8335,10 +8711,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8349,23 +8725,23 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5541166.0917912</v>
+        <v>446010.09828</v>
       </c>
       <c r="U16" t="n">
-        <v>821806.2596368</v>
+        <v>64864.6704512</v>
       </c>
       <c r="V16" t="n">
-        <v>823296.5998985</v>
+        <v>58818.659202</v>
       </c>
       <c r="W16" t="n">
         <v>1940</v>
       </c>
       <c r="X16" t="n">
-        <v>1910</v>
+        <v>1070</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
@@ -8377,31 +8753,55 @@
         <v>2880</v>
       </c>
       <c r="AB16" t="n">
-        <v>3740</v>
+        <v>2900</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>828489.0359400001</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>157316.27886478</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>111700</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1244885.11480478</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8410,10 +8810,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8428,13 +8828,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8446,10 +8846,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -8460,23 +8860,23 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>9068489.378939599</v>
+        <v>1127021.0284677</v>
       </c>
       <c r="U17" t="n">
-        <v>1340083.5597072</v>
+        <v>156319.3446122</v>
       </c>
       <c r="V17" t="n">
-        <v>1340484.907302</v>
+        <v>174226.1745</v>
       </c>
       <c r="W17" t="n">
         <v>1940</v>
       </c>
       <c r="X17" t="n">
-        <v>2820</v>
+        <v>1350</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
@@ -8488,64 +8888,88 @@
         <v>2880</v>
       </c>
       <c r="AB17" t="n">
-        <v>4650</v>
+        <v>3180</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="n">
+        <v>1905342.86814</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>357989.29152688</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>688289.2</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3221478.50966688</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8557,106 +8981,130 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>231815.2046249</v>
+        <v>5676043.0917912</v>
       </c>
       <c r="U18" t="n">
-        <v>40753.4391168</v>
+        <v>845534.2596368</v>
       </c>
       <c r="V18" t="n">
-        <v>27456.0623</v>
+        <v>845136.5998985</v>
       </c>
       <c r="W18" t="n">
-        <v>1300</v>
+        <v>1940</v>
       </c>
       <c r="X18" t="n">
-        <v>470</v>
+        <v>1910</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>3740</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
         <v>400</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1600</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1070</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>256</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>11599639.496285</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>2180389.636416495</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2010530</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>16385722.4327015</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -8668,37 +9116,37 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>323204.2665354</v>
+        <v>9378207.378939599</v>
       </c>
       <c r="U19" t="n">
-        <v>51182.4300113</v>
+        <v>1394116.5597072</v>
       </c>
       <c r="V19" t="n">
-        <v>39116.28152500001</v>
+        <v>1389716.907302</v>
       </c>
       <c r="W19" t="n">
         <v>1940</v>
       </c>
       <c r="X19" t="n">
-        <v>860</v>
+        <v>2820</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
@@ -8710,31 +9158,55 @@
         <v>2880</v>
       </c>
       <c r="AB19" t="n">
-        <v>2190</v>
+        <v>4650</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>18819167.97654</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3538494.38136578</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3474140.2</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>27007535.35790578</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8743,31 +9215,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -8779,73 +9251,97 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>421169.1144754</v>
+        <v>217815.2046249</v>
       </c>
       <c r="U20" t="n">
-        <v>63608.0313843</v>
+        <v>39413.4391168</v>
       </c>
       <c r="V20" t="n">
-        <v>55441.0769435</v>
+        <v>26456.0623</v>
       </c>
       <c r="W20" t="n">
-        <v>1940</v>
+        <v>900</v>
       </c>
       <c r="X20" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="AA20" t="n">
-        <v>2880</v>
+        <v>1200</v>
       </c>
       <c r="AB20" t="n">
-        <v>2510</v>
+        <v>820</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>563822.84686</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3423.14589582</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>32014.4</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>646695.79275582</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8854,31 +9350,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -8890,73 +9386,97 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>493254.03706</v>
+        <v>293804.2665354</v>
       </c>
       <c r="U21" t="n">
-        <v>73314.1061776</v>
+        <v>48368.4300113</v>
       </c>
       <c r="V21" t="n">
-        <v>66558.892289</v>
+        <v>37016.281525</v>
       </c>
       <c r="W21" t="n">
-        <v>1940</v>
+        <v>1100</v>
       </c>
       <c r="X21" t="n">
-        <v>1070</v>
+        <v>590</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="AA21" t="n">
-        <v>2880</v>
+        <v>1800</v>
       </c>
       <c r="AB21" t="n">
-        <v>2900</v>
+        <v>1515</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>670348.08591</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49107.75</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>45229.56647212</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>64028.8</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>847742.3023821199</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8965,10 +9485,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -8980,16 +9500,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9001,37 +9521,37 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>569412.9736299999</v>
+        <v>421169.1144754</v>
       </c>
       <c r="U22" t="n">
-        <v>86311.52018390001</v>
+        <v>63608.0313843</v>
       </c>
       <c r="V22" t="n">
-        <v>82301.3549835</v>
+        <v>55441.0769435</v>
       </c>
       <c r="W22" t="n">
         <v>1940</v>
       </c>
       <c r="X22" t="n">
-        <v>1350</v>
+        <v>930</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
@@ -9043,31 +9563,55 @@
         <v>2880</v>
       </c>
       <c r="AB22" t="n">
-        <v>3180</v>
+        <v>2510</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>852054.1961850001</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>109547.027267195</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>91895.2</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1191038.723452195</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9076,10 +9620,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9094,13 +9638,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9112,10 +9656,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9126,23 +9670,23 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>725502.1365124</v>
+        <v>493254.03706</v>
       </c>
       <c r="U23" t="n">
-        <v>113024.6163216</v>
+        <v>73314.1061776</v>
       </c>
       <c r="V23" t="n">
-        <v>114170.7835705</v>
+        <v>66558.892289</v>
       </c>
       <c r="W23" t="n">
         <v>1940</v>
       </c>
       <c r="X23" t="n">
-        <v>1910</v>
+        <v>1070</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
@@ -9154,31 +9698,325 @@
         <v>2880</v>
       </c>
       <c r="AB23" t="n">
-        <v>3740</v>
+        <v>2900</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>931261.7875700002</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>176481.46277719</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>142670</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1394936.50034719</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>31</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>569412.9736299999</v>
+      </c>
+      <c r="U24" t="n">
+        <v>86311.52018390001</v>
+      </c>
+      <c r="V24" t="n">
+        <v>82301.3549835</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1350</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>3180</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>1056119.767355</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>199728.736699035</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>239067.6</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1652248.754054035</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
+        <v>95</v>
+      </c>
+      <c r="I25" t="n">
+        <v>85</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>31</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>725502.1365124</v>
+      </c>
+      <c r="U25" t="n">
+        <v>113024.6163216</v>
+      </c>
+      <c r="V25" t="n">
+        <v>114170.7835705</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1910</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>720</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>3740</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>1315078.364445</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>247958.280216815</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>431854.8</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2177811.494661815</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/opm_hero_property/heroes/31.xlsx
+++ b/opm_hero_property/heroes/31.xlsx
@@ -997,87 +997,87 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,60473;31,4920;41,3004</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,181792;31,0;41,0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,90896;31,0;41,0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,7316;31,592;41,425</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,21995;31,0;41,0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,10997;31,0;41,0</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>60473.7987</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>4920.09</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>3004.2231</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>181792.401</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>90896.20049999999</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>7316.907</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>592.998</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>425.0055</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>21995.61</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>10997.805</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1104,87 +1104,87 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,60479;31,4920;41,3004</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,181810;31,0;41,0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,90905;31,0;41,0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,7322;31,593;41,425</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,22013;31,0;41,0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,11006;31,0;41,0</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>60479.7645</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>4920.846</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>3004.7184</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>181810.335</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>90905.1675</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>7322.8728</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>593.754</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>425.5008</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>22013.544</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>11006.772</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1211,87 +1211,87 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,64572;31,5461;41,3484</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,194113;31,0;41,0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,97056;31,0;41,0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,7763;31,651;41,478</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,23338;31,0;41,0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,11669;31,0;41,0</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>64572.55080246</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>5461.5355095</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>3484.89541272</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>194113.8030258</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>97056.90151289999</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>7763.78064267</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>651.9727515</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>478.5593781600001</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>23338.9724841</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>11669.48624205</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1318,87 +1318,87 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,69212;31,6074;41,4028</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,208062;31,0;41,0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,104031;31,0;41,0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,8262;31,717;41,538</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,24839;31,0;41,0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,12419;31,0;41,0</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>69212.62602227999</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>6074.377568700001</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>4028.79825684</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>208062.4954044</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>104031.2477022</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>8262.93399906</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>717.8703819</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>538.6010005200001</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>24839.4948438</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>12419.7474219</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1425,87 +1425,87 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21,53443;31,11325;41,4289</t>
+          <t>21,74668;31,6795;41,4668</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>21,53443;31,11325;41,4289</t>
+          <t>21,224463;31,0;41,0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>21,26721;31,5662;41,2144</t>
+          <t>21,112231;31,0;41,0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21,6333;31,1325;41,559</t>
+          <t>21,8849;31,795;41,609</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>21,6333;31,1325;41,559</t>
+          <t>21,26602;31,0;41,0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>21,3166;31,662;41,279</t>
+          <t>21,13301;31,0;41,0</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>53443</v>
+        <v>74668.32152556001</v>
       </c>
       <c r="O6" t="n">
-        <v>11325</v>
+        <v>6795.2903298</v>
       </c>
       <c r="P6" t="n">
-        <v>4289</v>
+        <v>4668.9453738</v>
       </c>
       <c r="Q6" t="n">
-        <v>53443</v>
+        <v>224463.0524388</v>
       </c>
       <c r="R6" t="n">
-        <v>11325</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>4289</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>26721</v>
+        <v>112231.5262194</v>
       </c>
       <c r="U6" t="n">
-        <v>5662</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>2144</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>6333</v>
+        <v>8849.45822262</v>
       </c>
       <c r="X6" t="n">
-        <v>1325</v>
+        <v>795.3445626000001</v>
       </c>
       <c r="Y6" t="n">
-        <v>559</v>
+        <v>609.2568714</v>
       </c>
       <c r="Z6" t="n">
-        <v>6333</v>
+        <v>26602.6658226</v>
       </c>
       <c r="AA6" t="n">
-        <v>1325</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>559</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>3166</v>
+        <v>13301.3329113</v>
       </c>
       <c r="AD6" t="n">
-        <v>662</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1532,87 +1532,87 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21,59777;31,12708;41,5517</t>
+          <t>21,83517;31,7625;41,6005</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>21,59777;31,12708;41,5517</t>
+          <t>21,251065;31,0;41,0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>21,29888;31,6354;41,2758</t>
+          <t>21,125532;31,0;41,0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21,7021;31,1475;41,696</t>
+          <t>21,9810;31,885;41,757</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>21,7021;31,1475;41,696</t>
+          <t>21,29491;31,0;41,0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>21,3510;31,737;41,348</t>
+          <t>21,14745;31,0;41,0</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>59777</v>
+        <v>83517.79681427999</v>
       </c>
       <c r="O7" t="n">
-        <v>12708</v>
+        <v>7625.407792800001</v>
       </c>
       <c r="P7" t="n">
-        <v>5517</v>
+        <v>6005.921678760001</v>
       </c>
       <c r="Q7" t="n">
-        <v>59777</v>
+        <v>251065.7695644</v>
       </c>
       <c r="R7" t="n">
-        <v>12708</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>5517</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>29888</v>
+        <v>125532.8847822</v>
       </c>
       <c r="U7" t="n">
-        <v>6354</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>2758</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>7021</v>
+        <v>9810.45078306</v>
       </c>
       <c r="X7" t="n">
-        <v>1475</v>
+        <v>885.5292936000001</v>
       </c>
       <c r="Y7" t="n">
-        <v>696</v>
+        <v>757.7297062800001</v>
       </c>
       <c r="Z7" t="n">
-        <v>7021</v>
+        <v>29491.5391638</v>
       </c>
       <c r="AA7" t="n">
-        <v>1475</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>696</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>3510</v>
+        <v>14745.7695819</v>
       </c>
       <c r="AD7" t="n">
-        <v>737</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1639,87 +1639,87 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21,67959;31,14271;41,7215</t>
+          <t>21,94949;31,8562;41,7854</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>21,67959;31,14271;41,7215</t>
+          <t>21,285431;31,0;41,0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>21,33979;31,7135;41,3607</t>
+          <t>21,142715;31,0;41,0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21,7906;31,1644;41,884</t>
+          <t>21,11046;31,986;41,962</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>21,7906;31,1644;41,884</t>
+          <t>21,33208;31,0;41,0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>21,3953;31,822;41,442</t>
+          <t>21,16604;31,0;41,0</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>67959</v>
+        <v>94949.68378272001</v>
       </c>
       <c r="O8" t="n">
-        <v>14271</v>
+        <v>8562.691712400001</v>
       </c>
       <c r="P8" t="n">
-        <v>7215</v>
+        <v>7854.82361214</v>
       </c>
       <c r="Q8" t="n">
-        <v>67959</v>
+        <v>285431.5647456</v>
       </c>
       <c r="R8" t="n">
-        <v>14271</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>7215</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>33979</v>
+        <v>142715.7823728</v>
       </c>
       <c r="U8" t="n">
-        <v>7135</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>3607</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>7906</v>
+        <v>11046.84592344</v>
       </c>
       <c r="X8" t="n">
-        <v>1644</v>
+        <v>986.8190388</v>
       </c>
       <c r="Y8" t="n">
-        <v>884</v>
+        <v>962.6383414200001</v>
       </c>
       <c r="Z8" t="n">
-        <v>7906</v>
+        <v>33208.3098312</v>
       </c>
       <c r="AA8" t="n">
-        <v>1644</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>884</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>3953</v>
+        <v>16604.1549156</v>
       </c>
       <c r="AD8" t="n">
-        <v>822</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1746,87 +1746,87 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21,78488;31,16074;41,9501</t>
+          <t>21,109659;31,9644;41,10343</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21,78488;31,16074;41,9501</t>
+          <t>21,329649;31,0;41,0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>21,39244;31,8037;41,4750</t>
+          <t>21,164824;31,0;41,0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>21,9041;31,1838;41,1137</t>
+          <t>21,12631;31,1103;41,1237</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>21,9041;31,1838;41,1137</t>
+          <t>21,37972;31,0;41,0</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>21,4520;31,919;41,568</t>
+          <t>21,18986;31,0;41,0</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>78488</v>
+        <v>109659.06206274</v>
       </c>
       <c r="O9" t="n">
-        <v>16074</v>
+        <v>9644.428976699999</v>
       </c>
       <c r="P9" t="n">
-        <v>9501</v>
+        <v>10343.41546248</v>
       </c>
       <c r="Q9" t="n">
-        <v>78488</v>
+        <v>329649.9411702</v>
       </c>
       <c r="R9" t="n">
-        <v>16074</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>9501</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>39244</v>
+        <v>164824.9705851</v>
       </c>
       <c r="U9" t="n">
-        <v>8037</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>4750</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>9041</v>
+        <v>12631.78764273</v>
       </c>
       <c r="X9" t="n">
-        <v>1838</v>
+        <v>1103.1820779</v>
       </c>
       <c r="Y9" t="n">
-        <v>1137</v>
+        <v>1237.74564744</v>
       </c>
       <c r="Z9" t="n">
-        <v>9041</v>
+        <v>37972.8585579</v>
       </c>
       <c r="AA9" t="n">
-        <v>1838</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1137</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>4520</v>
+        <v>18986.42927895</v>
       </c>
       <c r="AD9" t="n">
-        <v>919</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1853,87 +1853,87 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21,86376;31,17034;41,11405</t>
+          <t>21,120680;31,10220;41,12415</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>21,86376;31,17034;41,11405</t>
+          <t>21,362782;31,0;41,0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>21,43188;31,8517;41,5702</t>
+          <t>21,181391;31,0;41,0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>21,9891;31,1941;41,1347</t>
+          <t>21,13819;31,1165;41,1466</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>21,9891;31,1941;41,1347</t>
+          <t>21,41542;31,0;41,0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>21,4945;31,970;41,673</t>
+          <t>21,20771;31,0;41,0</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>86376</v>
+        <v>120680.66093574</v>
       </c>
       <c r="O10" t="n">
-        <v>17034</v>
+        <v>10220.8896384</v>
       </c>
       <c r="P10" t="n">
-        <v>11405</v>
+        <v>12415.6323315</v>
       </c>
       <c r="Q10" t="n">
-        <v>86376</v>
+        <v>362782.3549602</v>
       </c>
       <c r="R10" t="n">
-        <v>17034</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>11405</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>43188</v>
+        <v>181391.1774801</v>
       </c>
       <c r="U10" t="n">
-        <v>8517</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>5702</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>9891</v>
+        <v>13819.36155123</v>
       </c>
       <c r="X10" t="n">
-        <v>1941</v>
+        <v>1165.1515008</v>
       </c>
       <c r="Y10" t="n">
-        <v>1347</v>
+        <v>1466.8536195</v>
       </c>
       <c r="Z10" t="n">
-        <v>9891</v>
+        <v>41542.8660129</v>
       </c>
       <c r="AA10" t="n">
-        <v>1941</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1347</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>4945</v>
+        <v>20771.43300645</v>
       </c>
       <c r="AD10" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1960,87 +1960,87 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21,95995;31,18176;41,13742</t>
+          <t>21,134118;31,10905;41,14959</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21,95995;31,18176;41,13742</t>
+          <t>21,403179;31,0;41,0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>21,47997;31,9088;41,6871</t>
+          <t>21,201589;31,0;41,0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>21,10926;31,2064;41,1605</t>
+          <t>21,15265;31,1238;41,1747</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>21,10926;31,2064;41,1605</t>
+          <t>21,45889;31,0;41,0</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>21,5463;31,1032;41,802</t>
+          <t>21,22944;31,0;41,0</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>95995</v>
+        <v>134118.83879622</v>
       </c>
       <c r="O11" t="n">
-        <v>18176</v>
+        <v>10905.8002473</v>
       </c>
       <c r="P11" t="n">
-        <v>13742</v>
+        <v>14959.93861575</v>
       </c>
       <c r="Q11" t="n">
-        <v>95995</v>
+        <v>403179.3313505999</v>
       </c>
       <c r="R11" t="n">
-        <v>18176</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>13742</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>47997</v>
+        <v>201589.6656753</v>
       </c>
       <c r="U11" t="n">
-        <v>9088</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6871</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>10926</v>
+        <v>15265.34464419</v>
       </c>
       <c r="X11" t="n">
-        <v>2064</v>
+        <v>1238.6440101</v>
       </c>
       <c r="Y11" t="n">
-        <v>1605</v>
+        <v>1747.89645975</v>
       </c>
       <c r="Z11" t="n">
-        <v>10926</v>
+        <v>45889.6863537</v>
       </c>
       <c r="AA11" t="n">
-        <v>2064</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1605</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>5463</v>
+        <v>22944.84317685</v>
       </c>
       <c r="AD11" t="n">
-        <v>1032</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2067,87 +2067,87 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21,113719;31,20578;41,17902</t>
+          <t>21,158882;31,12346;41,19487</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21,113719;31,20578;41,17902</t>
+          <t>21,477622;31,0;41,0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>21,56859;31,10289;41,8951</t>
+          <t>21,238811;31,0;41,0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>21,12830;31,2322;41,2064</t>
+          <t>21,17926;31,1393;41,2247</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>21,12830;31,2322;41,2064</t>
+          <t>21,53889;31,0;41,0</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>21,6415;31,1161;41,1032</t>
+          <t>21,26944;31,0;41,0</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>113719</v>
+        <v>158882.52484386</v>
       </c>
       <c r="O12" t="n">
-        <v>20578</v>
+        <v>12346.8475242</v>
       </c>
       <c r="P12" t="n">
-        <v>17902</v>
+        <v>19487.77951941</v>
       </c>
       <c r="Q12" t="n">
-        <v>113719</v>
+        <v>477622.3139478</v>
       </c>
       <c r="R12" t="n">
-        <v>20578</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>17902</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>56859</v>
+        <v>238811.1569739</v>
       </c>
       <c r="U12" t="n">
-        <v>10289</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>8951</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>12830</v>
+        <v>17926.39512297</v>
       </c>
       <c r="X12" t="n">
-        <v>2322</v>
+        <v>1393.2468354</v>
       </c>
       <c r="Y12" t="n">
-        <v>2064</v>
+        <v>2247.51531573</v>
       </c>
       <c r="Z12" t="n">
-        <v>12830</v>
+        <v>53889.1632531</v>
       </c>
       <c r="AA12" t="n">
-        <v>2322</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>2064</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>6415</v>
+        <v>26944.58162655</v>
       </c>
       <c r="AD12" t="n">
-        <v>1161</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>1032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2174,87 +2174,87 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>21,116462;31,21060;41,18491</t>
+          <t>21,162714;31,12636;41,20129</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>21,116462;31,21060;41,18491</t>
+          <t>21,489142;31,0;41,0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>21,58231;31,10530;41,9245</t>
+          <t>21,244571;31,0;41,0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21,13134;31,2375;41,2131</t>
+          <t>21,18351;31,1425;41,2319</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>21,13134;31,2375;41,2131</t>
+          <t>21,55166;31,0;41,0</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>21,6567;31,1187;41,1065</t>
+          <t>21,27583;31,0;41,0</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>116462</v>
+        <v>162714.77188764</v>
       </c>
       <c r="O13" t="n">
-        <v>21060</v>
+        <v>12636.3594777</v>
       </c>
       <c r="P13" t="n">
-        <v>18491</v>
+        <v>20129.64113637</v>
       </c>
       <c r="Q13" t="n">
-        <v>116462</v>
+        <v>489142.5657972</v>
       </c>
       <c r="R13" t="n">
-        <v>21060</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18491</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>58231</v>
+        <v>244571.2828986</v>
       </c>
       <c r="U13" t="n">
-        <v>10530</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>9245</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>13134</v>
+        <v>18351.28540878</v>
       </c>
       <c r="X13" t="n">
-        <v>2375</v>
+        <v>1425.2968149</v>
       </c>
       <c r="Y13" t="n">
-        <v>2131</v>
+        <v>2319.88568661</v>
       </c>
       <c r="Z13" t="n">
-        <v>13134</v>
+        <v>55166.44079939999</v>
       </c>
       <c r="AA13" t="n">
-        <v>2375</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>2131</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>6567</v>
+        <v>27583.2203997</v>
       </c>
       <c r="AD13" t="n">
-        <v>1187</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>1065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2281,87 +2281,87 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21,119209;31,21543;41,19081</t>
+          <t>21,166552;31,12925;41,20771</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21,119209;31,21543;41,19081</t>
+          <t>21,500680;31,0;41,0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>21,59604;31,10771;41,9540</t>
+          <t>21,250340;31,0;41,0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21,13439;31,2428;41,2197</t>
+          <t>21,18776;31,1457;41,2392</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>21,13439;31,2428;41,2197</t>
+          <t>21,56445;31,0;41,0</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>21,6719;31,1214;41,1098</t>
+          <t>21,28222;31,0;41,0</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>119209</v>
+        <v>166552.967724</v>
       </c>
       <c r="O14" t="n">
-        <v>21543</v>
+        <v>12925.8504312</v>
       </c>
       <c r="P14" t="n">
-        <v>19081</v>
+        <v>20771.21309046</v>
       </c>
       <c r="Q14" t="n">
-        <v>119209</v>
+        <v>500680.70052</v>
       </c>
       <c r="R14" t="n">
-        <v>21543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>19081</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>59604</v>
+        <v>250340.35026</v>
       </c>
       <c r="U14" t="n">
-        <v>10771</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>9540</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>13439</v>
+        <v>18776.808798</v>
       </c>
       <c r="X14" t="n">
-        <v>2428</v>
+        <v>1457.3257944</v>
       </c>
       <c r="Y14" t="n">
-        <v>2197</v>
+        <v>2392.22431638</v>
       </c>
       <c r="Z14" t="n">
-        <v>13439</v>
+        <v>56445.62154</v>
       </c>
       <c r="AA14" t="n">
-        <v>2428</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>2197</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>6719</v>
+        <v>28222.81077</v>
       </c>
       <c r="AD14" t="n">
-        <v>1214</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>1098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2388,87 +2388,87 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21,121952;31,22025;41,19670</t>
+          <t>21,170385;31,13215;41,21413</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21,121952;31,22025;41,19670</t>
+          <t>21,512200;31,0;41,0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>21,60976;31,11012;41,9835</t>
+          <t>21,256100;31,0;41,0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>21,13743;31,2482;41,2264</t>
+          <t>21,19201;31,1489;41,2464</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>21,13743;31,2482;41,2264</t>
+          <t>21,57722;31,0;41,0</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>21,6871;31,1241;41,1132</t>
+          <t>21,28861;31,0;41,0</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>121952</v>
+        <v>170385.21476778</v>
       </c>
       <c r="O15" t="n">
-        <v>22025</v>
+        <v>13215.3623847</v>
       </c>
       <c r="P15" t="n">
-        <v>19670</v>
+        <v>21413.07470742</v>
       </c>
       <c r="Q15" t="n">
-        <v>121952</v>
+        <v>512200.9523694</v>
       </c>
       <c r="R15" t="n">
-        <v>22025</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>19670</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>60976</v>
+        <v>256100.4761847</v>
       </c>
       <c r="U15" t="n">
-        <v>11012</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>9835</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>13743</v>
+        <v>19201.69908381</v>
       </c>
       <c r="X15" t="n">
-        <v>2482</v>
+        <v>1489.3757739</v>
       </c>
       <c r="Y15" t="n">
-        <v>2264</v>
+        <v>2464.59468726</v>
       </c>
       <c r="Z15" t="n">
-        <v>13743</v>
+        <v>57722.89908629999</v>
       </c>
       <c r="AA15" t="n">
-        <v>2482</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>2264</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>6871</v>
+        <v>28861.44954315</v>
       </c>
       <c r="AD15" t="n">
-        <v>1241</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>1132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2495,87 +2495,87 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21,124699;31,22507;41,20260</t>
+          <t>21,174223;31,13504;41,22054</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>21,124699;31,22507;41,20260</t>
+          <t>21,523738;31,0;41,0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>21,62349;31,11253;41,10130</t>
+          <t>21,261869;31,0;41,0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21,14048;31,2535;41,2330</t>
+          <t>21,19627;31,1521;41,2536</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>21,14048;31,2535;41,2330</t>
+          <t>21,59001;31,0;41,0</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>21,7024;31,1267;41,1165</t>
+          <t>21,29500;31,0;41,0</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>124699</v>
+        <v>174223.36170414</v>
       </c>
       <c r="O16" t="n">
-        <v>22507</v>
+        <v>13504.3900929</v>
       </c>
       <c r="P16" t="n">
-        <v>20260</v>
+        <v>22054.64666151</v>
       </c>
       <c r="Q16" t="n">
-        <v>124699</v>
+        <v>523738.9400921999</v>
       </c>
       <c r="R16" t="n">
-        <v>22507</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>20260</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>62349</v>
+        <v>261869.4700461</v>
       </c>
       <c r="U16" t="n">
-        <v>11253</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>10130</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>14048</v>
+        <v>19627.17357303</v>
       </c>
       <c r="X16" t="n">
-        <v>2535</v>
+        <v>1521.3742173</v>
       </c>
       <c r="Y16" t="n">
-        <v>2330</v>
+        <v>2536.93331703</v>
       </c>
       <c r="Z16" t="n">
-        <v>14048</v>
+        <v>59001.9328269</v>
       </c>
       <c r="AA16" t="n">
-        <v>2535</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>2330</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>7024</v>
+        <v>29500.96641345</v>
       </c>
       <c r="AD16" t="n">
-        <v>1267</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>1165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2602,87 +2602,87 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21,127442;31,22989;41,20849</t>
+          <t>21,178055;31,13793;41,22696</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21,127442;31,22989;41,20849</t>
+          <t>21,535259;31,0;41,0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>21,63721;31,11494;41,10424</t>
+          <t>21,267629;31,0;41,0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>21,14352;31,2589;41,2396</t>
+          <t>21,20052;31,1553;41,2609</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>21,14352;31,2589;41,2396</t>
+          <t>21,60279;31,0;41,0</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>21,7176;31,1294;41,1198</t>
+          <t>21,30139;31,0;41,0</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>127442</v>
+        <v>178055.60874792</v>
       </c>
       <c r="O17" t="n">
-        <v>22989</v>
+        <v>13793.8810464</v>
       </c>
       <c r="P17" t="n">
-        <v>20849</v>
+        <v>22696.47017847</v>
       </c>
       <c r="Q17" t="n">
-        <v>127442</v>
+        <v>535259.1919415999</v>
       </c>
       <c r="R17" t="n">
-        <v>22989</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>20849</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>63721</v>
+        <v>267629.5959708</v>
       </c>
       <c r="U17" t="n">
-        <v>11494</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>10424</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>14352</v>
+        <v>20052.06385884</v>
       </c>
       <c r="X17" t="n">
-        <v>2589</v>
+        <v>1553.4031968</v>
       </c>
       <c r="Y17" t="n">
-        <v>2396</v>
+        <v>2609.26558791</v>
       </c>
       <c r="Z17" t="n">
-        <v>14352</v>
+        <v>60279.2103732</v>
       </c>
       <c r="AA17" t="n">
-        <v>2589</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>2396</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>7176</v>
+        <v>30139.6051866</v>
       </c>
       <c r="AD17" t="n">
-        <v>1294</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>1198</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5107,141 +5107,141 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7479</v>
+        <v>9991</v>
       </c>
       <c r="C2" t="n">
-        <v>1479</v>
+        <v>772</v>
       </c>
       <c r="D2" t="n">
-        <v>865</v>
+        <v>1271</v>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H2" t="n">
-        <v>7479</v>
+        <v>22172</v>
       </c>
       <c r="I2" t="n">
-        <v>1479</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>865</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="L2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3739</v>
+        <v>11086</v>
       </c>
       <c r="O2" t="n">
-        <v>739</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>432</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="R2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>5003</v>
+        <v>5122</v>
       </c>
       <c r="U2" t="n">
-        <v>874</v>
+        <v>429</v>
       </c>
       <c r="V2" t="n">
-        <v>727</v>
+        <v>503</v>
       </c>
       <c r="W2" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="X2" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="n">
-        <v>5003</v>
+        <v>11366</v>
       </c>
       <c r="AA2" t="n">
-        <v>874</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>727</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="AD2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>2501</v>
+        <v>5683</v>
       </c>
       <c r="AG2" t="n">
-        <v>437</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>21,7479;31,1479;41,865;22,40;32,40;42,40</t>
+          <t>21,9991;31,772;41,1271;22,56;32,24;42,43</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>21,7479;31,1479;41,865;22,40;32,40;42,40</t>
+          <t>21,22172;31,0;41,0;22,168;32,0;42,0</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>21,3739;31,739;41,432;22,20;32,20;42,20</t>
+          <t>21,11086;31,0;41,0;22,84;32,0;42,0</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,5122;31,429;41,503;22,49;32,21;42,38</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,11366;31,0;41,0;22,147;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>21,2501;31,437;41,363;22,17;32,17;42,17</t>
+          <t>21,5683;31,0;41,0;22,71;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -5250,141 +5250,141 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15050</v>
+        <v>19983</v>
       </c>
       <c r="C3" t="n">
-        <v>2843</v>
+        <v>1544</v>
       </c>
       <c r="D3" t="n">
-        <v>1861</v>
+        <v>2542</v>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="F3" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="G3" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H3" t="n">
-        <v>15050</v>
+        <v>44345</v>
       </c>
       <c r="I3" t="n">
-        <v>2843</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1861</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>80</v>
+        <v>336</v>
       </c>
       <c r="L3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>7525</v>
+        <v>22172</v>
       </c>
       <c r="O3" t="n">
-        <v>1421</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>930</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="R3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>5241</v>
+        <v>5900</v>
       </c>
       <c r="U3" t="n">
-        <v>915</v>
+        <v>477</v>
       </c>
       <c r="V3" t="n">
-        <v>768</v>
+        <v>627</v>
       </c>
       <c r="W3" t="n">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="X3" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="Y3" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="n">
-        <v>5241</v>
+        <v>13095</v>
       </c>
       <c r="AA3" t="n">
-        <v>915</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>768</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>70</v>
+        <v>294</v>
       </c>
       <c r="AD3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>2620</v>
+        <v>6547</v>
       </c>
       <c r="AG3" t="n">
-        <v>457</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="AJ3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>21,15050;31,2843;41,1861;22,80;32,80;42,80</t>
+          <t>21,19983;31,1544;41,2542;22,112;32,48;42,87</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>21,15050;31,2843;41,1861;22,80;32,80;42,80</t>
+          <t>21,44345;31,0;41,0;22,336;32,0;42,0</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>21,7525;31,1421;41,930;22,40;32,40;42,40</t>
+          <t>21,22172;31,0;41,0;22,168;32,0;42,0</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,5900;31,477;41,627;22,98;32,42;42,76</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,13095;31,0;41,0;22,294;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>21,2620;31,457;41,384;22,35;32,35;42,35</t>
+          <t>21,6547;31,0;41,0;22,147;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -5393,141 +5393,141 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>22479</v>
+        <v>29974</v>
       </c>
       <c r="C4" t="n">
-        <v>4071</v>
+        <v>2317</v>
       </c>
       <c r="D4" t="n">
-        <v>3033</v>
+        <v>3813</v>
       </c>
       <c r="E4" t="n">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="F4" t="n">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H4" t="n">
-        <v>22479</v>
+        <v>66517</v>
       </c>
       <c r="I4" t="n">
-        <v>4071</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3033</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>120</v>
+        <v>503</v>
       </c>
       <c r="L4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>11239</v>
+        <v>33258</v>
       </c>
       <c r="O4" t="n">
-        <v>2035</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1516</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>251</v>
       </c>
       <c r="R4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>5490</v>
+        <v>7222</v>
       </c>
       <c r="U4" t="n">
-        <v>959</v>
+        <v>560</v>
       </c>
       <c r="V4" t="n">
-        <v>812</v>
+        <v>845</v>
       </c>
       <c r="W4" t="n">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="X4" t="n">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="Y4" t="n">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="Z4" t="n">
-        <v>5490</v>
+        <v>16028</v>
       </c>
       <c r="AA4" t="n">
-        <v>959</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>812</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>105</v>
+        <v>441</v>
       </c>
       <c r="AD4" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>2745</v>
+        <v>8014</v>
       </c>
       <c r="AG4" t="n">
-        <v>479</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>52</v>
+        <v>218</v>
       </c>
       <c r="AJ4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>21,22479;31,4071;41,3033;22,120;32,120;42,120</t>
+          <t>21,29974;31,2317;41,3813;22,168;32,72;42,130</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>21,22479;31,4071;41,3033;22,120;32,120;42,120</t>
+          <t>21,66517;31,0;41,0;22,503;32,0;42,0</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>21,11239;31,2035;41,1516;22,60;32,60;42,60</t>
+          <t>21,33258;31,0;41,0;22,251;32,0;42,0</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,7222;31,560;41,845;22,147;32,63;42,114</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,16028;31,0;41,0;22,441;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>21,2745;31,479;41,406;22,52;32,52;42,52</t>
+          <t>21,8014;31,0;41,0;22,218;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -5536,141 +5536,141 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>29901</v>
+        <v>39966</v>
       </c>
       <c r="C5" t="n">
-        <v>5409</v>
+        <v>3089</v>
       </c>
       <c r="D5" t="n">
-        <v>4086</v>
+        <v>5084</v>
       </c>
       <c r="E5" t="n">
-        <v>160</v>
+        <v>224</v>
       </c>
       <c r="F5" t="n">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="G5" t="n">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="H5" t="n">
-        <v>29901</v>
+        <v>88690</v>
       </c>
       <c r="I5" t="n">
-        <v>5409</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4086</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>160</v>
+        <v>672</v>
       </c>
       <c r="L5" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>14950</v>
+        <v>44345</v>
       </c>
       <c r="O5" t="n">
-        <v>2704</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2043</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>80</v>
+        <v>336</v>
       </c>
       <c r="R5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>5881</v>
+        <v>7743</v>
       </c>
       <c r="U5" t="n">
-        <v>1026</v>
+        <v>600</v>
       </c>
       <c r="V5" t="n">
-        <v>883</v>
+        <v>920</v>
       </c>
       <c r="W5" t="n">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="X5" t="n">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="n">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="Z5" t="n">
-        <v>5881</v>
+        <v>17184</v>
       </c>
       <c r="AA5" t="n">
-        <v>1026</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>883</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>140</v>
+        <v>588</v>
       </c>
       <c r="AD5" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>2940</v>
+        <v>8592</v>
       </c>
       <c r="AG5" t="n">
-        <v>513</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>441</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>70</v>
+        <v>294</v>
       </c>
       <c r="AJ5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>21,29901;31,5409;41,4086;22,160;32,160;42,160</t>
+          <t>21,39966;31,3089;41,5084;22,224;32,96;42,174</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>21,29901;31,5409;41,4086;22,160;32,160;42,160</t>
+          <t>21,88690;31,0;41,0;22,672;32,0;42,0</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>21,14950;31,2704;41,2043;22,80;32,80;42,80</t>
+          <t>21,44345;31,0;41,0;22,336;32,0;42,0</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,7743;31,600;41,920;22,196;32,84;42,152</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,17184;31,0;41,0;22,588;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>21,2940;31,513;41,441;22,70;32,70;42,70</t>
+          <t>21,8592;31,0;41,0;22,294;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -5679,141 +5679,141 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>37293</v>
+        <v>49957</v>
       </c>
       <c r="C6" t="n">
-        <v>6740</v>
+        <v>3862</v>
       </c>
       <c r="D6" t="n">
-        <v>5158</v>
+        <v>6355</v>
       </c>
       <c r="E6" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="F6" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G6" t="n">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="H6" t="n">
-        <v>37293</v>
+        <v>110863</v>
       </c>
       <c r="I6" t="n">
-        <v>6740</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>5158</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>200</v>
+        <v>840</v>
       </c>
       <c r="L6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>18646</v>
+        <v>55431</v>
       </c>
       <c r="O6" t="n">
-        <v>3370</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2579</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>100</v>
+        <v>420</v>
       </c>
       <c r="R6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>6161</v>
+        <v>8298</v>
       </c>
       <c r="U6" t="n">
-        <v>1075</v>
+        <v>642</v>
       </c>
       <c r="V6" t="n">
-        <v>932</v>
+        <v>1001</v>
       </c>
       <c r="W6" t="n">
-        <v>175</v>
+        <v>244</v>
       </c>
       <c r="X6" t="n">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="Y6" t="n">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="Z6" t="n">
-        <v>6161</v>
+        <v>18416</v>
       </c>
       <c r="AA6" t="n">
-        <v>1075</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>932</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>175</v>
+        <v>735</v>
       </c>
       <c r="AD6" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>3080</v>
+        <v>9208</v>
       </c>
       <c r="AG6" t="n">
-        <v>537</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>87</v>
+        <v>365</v>
       </c>
       <c r="AJ6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>21,37293;31,6740;41,5158;22,200;32,200;42,200</t>
+          <t>21,49957;31,3862;41,6355;22,280;32,120;42,217</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>21,37293;31,6740;41,5158;22,200;32,200;42,200</t>
+          <t>21,110863;31,0;41,0;22,840;32,0;42,0</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>21,18646;31,3370;41,2579;22,100;32,100;42,100</t>
+          <t>21,55431;31,0;41,0;22,420;32,0;42,0</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,8298;31,642;41,1001;22,244;32,105;42,190</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,18416;31,0;41,0;22,735;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>21,3080;31,537;41,466;22,87;32,87;42,87</t>
+          <t>21,9208;31,0;41,0;22,365;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -5822,141 +5822,141 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>43479</v>
+        <v>59949</v>
       </c>
       <c r="C7" t="n">
-        <v>7853</v>
+        <v>4634</v>
       </c>
       <c r="D7" t="n">
-        <v>6692</v>
+        <v>7626</v>
       </c>
       <c r="E7" t="n">
-        <v>240</v>
+        <v>336</v>
       </c>
       <c r="F7" t="n">
-        <v>240</v>
+        <v>144</v>
       </c>
       <c r="G7" t="n">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="H7" t="n">
-        <v>43479</v>
+        <v>133035</v>
       </c>
       <c r="I7" t="n">
-        <v>7853</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>6692</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>240</v>
+        <v>1007</v>
       </c>
       <c r="L7" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>21739</v>
+        <v>66517</v>
       </c>
       <c r="O7" t="n">
-        <v>3926</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>3346</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>120</v>
+        <v>503</v>
       </c>
       <c r="R7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>6454</v>
+        <v>8889</v>
       </c>
       <c r="U7" t="n">
-        <v>1126</v>
+        <v>688</v>
       </c>
       <c r="V7" t="n">
-        <v>984</v>
+        <v>1089</v>
       </c>
       <c r="W7" t="n">
-        <v>210</v>
+        <v>294</v>
       </c>
       <c r="X7" t="n">
-        <v>210</v>
+        <v>126</v>
       </c>
       <c r="Y7" t="n">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="Z7" t="n">
-        <v>6454</v>
+        <v>19726</v>
       </c>
       <c r="AA7" t="n">
-        <v>1126</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>984</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>210</v>
+        <v>882</v>
       </c>
       <c r="AD7" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>3227</v>
+        <v>9863</v>
       </c>
       <c r="AG7" t="n">
-        <v>563</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>492</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>105</v>
+        <v>441</v>
       </c>
       <c r="AJ7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>21,43479;31,7853;41,6692;22,240;32,240;42,240</t>
+          <t>21,59949;31,4634;41,7626;22,336;32,144;42,261</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>21,43479;31,7853;41,6692;22,240;32,240;42,240</t>
+          <t>21,133035;31,0;41,0;22,1007;32,0;42,0</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>21,21739;31,3926;41,3346;22,120;32,120;42,120</t>
+          <t>21,66517;31,0;41,0;22,503;32,0;42,0</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,8889;31,688;41,1089;22,294;32,126;42,228</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,19726;31,0;41,0;22,882;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>21,3227;31,563;41,492;22,105;32,105;42,105</t>
+          <t>21,9863;31,0;41,0;22,441;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -5965,141 +5965,141 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>49649</v>
+        <v>69940</v>
       </c>
       <c r="C8" t="n">
-        <v>8961</v>
+        <v>5406</v>
       </c>
       <c r="D8" t="n">
-        <v>8236</v>
+        <v>8897</v>
       </c>
       <c r="E8" t="n">
-        <v>280</v>
+        <v>392</v>
       </c>
       <c r="F8" t="n">
-        <v>280</v>
+        <v>168</v>
       </c>
       <c r="G8" t="n">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="H8" t="n">
-        <v>49649</v>
+        <v>155208</v>
       </c>
       <c r="I8" t="n">
-        <v>8961</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>8236</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>280</v>
+        <v>1176</v>
       </c>
       <c r="L8" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>24824</v>
+        <v>77604</v>
       </c>
       <c r="O8" t="n">
-        <v>4480</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>4118</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>140</v>
+        <v>588</v>
       </c>
       <c r="R8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>6762</v>
+        <v>9517</v>
       </c>
       <c r="U8" t="n">
-        <v>1179</v>
+        <v>736</v>
       </c>
       <c r="V8" t="n">
-        <v>1038</v>
+        <v>1182</v>
       </c>
       <c r="W8" t="n">
-        <v>245</v>
+        <v>343</v>
       </c>
       <c r="X8" t="n">
-        <v>245</v>
+        <v>147</v>
       </c>
       <c r="Y8" t="n">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="Z8" t="n">
-        <v>6762</v>
+        <v>21121</v>
       </c>
       <c r="AA8" t="n">
-        <v>1179</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>1038</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>245</v>
+        <v>1029</v>
       </c>
       <c r="AD8" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>3381</v>
+        <v>10560</v>
       </c>
       <c r="AG8" t="n">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>519</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>122</v>
+        <v>512</v>
       </c>
       <c r="AJ8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>21,49649;31,8961;41,8236;22,280;32,280;42,280</t>
+          <t>21,69940;31,5406;41,8897;22,392;32,168;42,304</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>21,49649;31,8961;41,8236;22,280;32,280;42,280</t>
+          <t>21,155208;31,0;41,0;22,1176;32,0;42,0</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>21,24824;31,4480;41,4118;22,140;32,140;42,140</t>
+          <t>21,77604;31,0;41,0;22,588;32,0;42,0</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,9517;31,736;41,1182;22,343;32,147;42,266</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,21121;31,0;41,0;22,1029;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>21,3381;31,589;41,519;22,122;32,122;42,122</t>
+          <t>21,10560;31,0;41,0;22,512;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6108,141 +6108,141 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>56289</v>
+        <v>79932</v>
       </c>
       <c r="C9" t="n">
-        <v>10154</v>
+        <v>6179</v>
       </c>
       <c r="D9" t="n">
-        <v>9605</v>
+        <v>10168</v>
       </c>
       <c r="E9" t="n">
-        <v>315</v>
+        <v>441</v>
       </c>
       <c r="F9" t="n">
-        <v>315</v>
+        <v>189</v>
       </c>
       <c r="G9" t="n">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="H9" t="n">
-        <v>56289</v>
+        <v>177380</v>
       </c>
       <c r="I9" t="n">
-        <v>10154</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>9605</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>315</v>
+        <v>1323</v>
       </c>
       <c r="L9" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>28144</v>
+        <v>88690</v>
       </c>
       <c r="O9" t="n">
-        <v>5077</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>4802</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>157</v>
+        <v>659</v>
       </c>
       <c r="R9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>7353</v>
+        <v>10573</v>
       </c>
       <c r="U9" t="n">
-        <v>1283</v>
+        <v>817</v>
       </c>
       <c r="V9" t="n">
-        <v>1144</v>
+        <v>1340</v>
       </c>
       <c r="W9" t="n">
-        <v>280</v>
+        <v>392</v>
       </c>
       <c r="X9" t="n">
-        <v>280</v>
+        <v>168</v>
       </c>
       <c r="Y9" t="n">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="Z9" t="n">
-        <v>7353</v>
+        <v>23464</v>
       </c>
       <c r="AA9" t="n">
-        <v>1283</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1144</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>280</v>
+        <v>1176</v>
       </c>
       <c r="AD9" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>3676</v>
+        <v>11732</v>
       </c>
       <c r="AG9" t="n">
-        <v>641</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>572</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>140</v>
+        <v>588</v>
       </c>
       <c r="AJ9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>21,56289;31,10154;41,9605;22,315;32,315;42,315</t>
+          <t>21,79932;31,6179;41,10168;22,441;32,189;42,342</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>21,56289;31,10154;41,9605;22,315;32,315;42,315</t>
+          <t>21,177380;31,0;41,0;22,1323;32,0;42,0</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>21,28144;31,5077;41,4802;22,157;32,157;42,157</t>
+          <t>21,88690;31,0;41,0;22,659;32,0;42,0</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,10573;31,817;41,1340;22,392;32,168;42,304</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,23464;31,0;41,0;22,1176;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>21,3676;31,641;41,572;22,140;32,140;42,140</t>
+          <t>21,11732;31,0;41,0;22,588;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6251,141 +6251,141 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>63890</v>
+        <v>89923</v>
       </c>
       <c r="C10" t="n">
-        <v>11525</v>
+        <v>6951</v>
       </c>
       <c r="D10" t="n">
-        <v>10579</v>
+        <v>11439</v>
       </c>
       <c r="E10" t="n">
-        <v>335</v>
+        <v>468</v>
       </c>
       <c r="F10" t="n">
-        <v>335</v>
+        <v>201</v>
       </c>
       <c r="G10" t="n">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="H10" t="n">
-        <v>63890</v>
+        <v>199553</v>
       </c>
       <c r="I10" t="n">
-        <v>11525</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>10579</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>335</v>
+        <v>1407</v>
       </c>
       <c r="L10" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>31945</v>
+        <v>99776</v>
       </c>
       <c r="O10" t="n">
-        <v>5762</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5289</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>167</v>
+        <v>701</v>
       </c>
       <c r="R10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>7961</v>
+        <v>11448</v>
       </c>
       <c r="U10" t="n">
-        <v>1389</v>
+        <v>885</v>
       </c>
       <c r="V10" t="n">
-        <v>1254</v>
+        <v>1469</v>
       </c>
       <c r="W10" t="n">
-        <v>315</v>
+        <v>441</v>
       </c>
       <c r="X10" t="n">
-        <v>315</v>
+        <v>189</v>
       </c>
       <c r="Y10" t="n">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="Z10" t="n">
-        <v>7961</v>
+        <v>25406</v>
       </c>
       <c r="AA10" t="n">
-        <v>1389</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1254</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>315</v>
+        <v>1323</v>
       </c>
       <c r="AD10" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>3980</v>
+        <v>12703</v>
       </c>
       <c r="AG10" t="n">
-        <v>694</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>627</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>157</v>
+        <v>659</v>
       </c>
       <c r="AJ10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>21,63890;31,11525;41,10579;22,335;32,335;42,335</t>
+          <t>21,89923;31,6951;41,11439;22,468;32,201;42,364</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>21,63890;31,11525;41,10579;22,335;32,335;42,335</t>
+          <t>21,199553;31,0;41,0;22,1407;32,0;42,0</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>21,31945;31,5762;41,5289;22,167;32,167;42,167</t>
+          <t>21,99776;31,0;41,0;22,701;32,0;42,0</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,11448;31,885;41,1469;22,441;32,189;42,342</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,25406;31,0;41,0;22,1323;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>21,3980;31,694;41,627;22,157;32,157;42,157</t>
+          <t>21,12703;31,0;41,0;22,659;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6394,141 +6394,141 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>71367</v>
+        <v>99915</v>
       </c>
       <c r="C11" t="n">
-        <v>12874</v>
+        <v>7724</v>
       </c>
       <c r="D11" t="n">
-        <v>11675</v>
+        <v>12711</v>
       </c>
       <c r="E11" t="n">
-        <v>350</v>
+        <v>489</v>
       </c>
       <c r="F11" t="n">
-        <v>350</v>
+        <v>210</v>
       </c>
       <c r="G11" t="n">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="H11" t="n">
-        <v>71367</v>
+        <v>221726</v>
       </c>
       <c r="I11" t="n">
-        <v>12874</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11675</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>350</v>
+        <v>1470</v>
       </c>
       <c r="L11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>35683</v>
+        <v>110863</v>
       </c>
       <c r="O11" t="n">
-        <v>6437</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>5837</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>175</v>
+        <v>735</v>
       </c>
       <c r="R11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8582</v>
+        <v>12342</v>
       </c>
       <c r="U11" t="n">
-        <v>1497</v>
+        <v>954</v>
       </c>
       <c r="V11" t="n">
-        <v>1368</v>
+        <v>1603</v>
       </c>
       <c r="W11" t="n">
-        <v>350</v>
+        <v>489</v>
       </c>
       <c r="X11" t="n">
-        <v>350</v>
+        <v>210</v>
       </c>
       <c r="Y11" t="n">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="Z11" t="n">
-        <v>8582</v>
+        <v>27390</v>
       </c>
       <c r="AA11" t="n">
-        <v>1497</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1368</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>350</v>
+        <v>1470</v>
       </c>
       <c r="AD11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>4291</v>
+        <v>13695</v>
       </c>
       <c r="AG11" t="n">
-        <v>748</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>684</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>175</v>
+        <v>735</v>
       </c>
       <c r="AJ11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>21,71367;31,12874;41,11675;22,350;32,350;42,350</t>
+          <t>21,99915;31,7724;41,12711;22,489;32,210;42,381</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>21,71367;31,12874;41,11675;22,350;32,350;42,350</t>
+          <t>21,221726;31,0;41,0;22,1470;32,0;42,0</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>21,35683;31,6437;41,5837;22,175;32,175;42,175</t>
+          <t>21,110863;31,0;41,0;22,735;32,0;42,0</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,12342;31,954;41,1603;22,489;32,210;42,381</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,27390;31,0;41,0;22,1470;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>21,4291;31,748;41,684;22,175;32,175;42,175</t>
+          <t>21,13695;31,0;41,0;22,735;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6839,13 +6839,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5676043.0917912</v>
+        <v>5954013.70053912</v>
       </c>
       <c r="U2" t="n">
-        <v>845534.2596368</v>
+        <v>867052.1406832</v>
       </c>
       <c r="V2" t="n">
-        <v>845136.5998985</v>
+        <v>880544.07007697</v>
       </c>
       <c r="W2" t="n">
         <v>1940</v>
@@ -6886,8 +6886,16 @@
       <c r="AI2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>21,756985;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>21,378492;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL2" t="n">
         <v>11599639.496285</v>
       </c>
@@ -6907,10 +6915,10 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>630036.9414942825</v>
       </c>
       <c r="AS2" t="n">
-        <v>16385722.4327015</v>
+        <v>17015759.37419578</v>
       </c>
     </row>
     <row r="3">
@@ -6974,13 +6982,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>725502.1365124</v>
+        <v>757896.20037124</v>
       </c>
       <c r="U3" t="n">
-        <v>113024.6163216</v>
+        <v>115532.0195184</v>
       </c>
       <c r="V3" t="n">
-        <v>114170.7835705</v>
+        <v>118383.04915841</v>
       </c>
       <c r="W3" t="n">
         <v>1940</v>
@@ -7021,8 +7029,16 @@
       <c r="AI3" t="n">
         <v>0</v>
       </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>21,87669;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>21,43834;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL3" t="n">
         <v>1315078.364445</v>
       </c>
@@ -7042,10 +7058,10 @@
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>73915.6730472425</v>
       </c>
       <c r="AS3" t="n">
-        <v>2177811.494661815</v>
+        <v>2251727.167709058</v>
       </c>
     </row>
     <row r="4">
@@ -7514,13 +7530,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>59213.43240000001</v>
+        <v>69421.63082144001</v>
       </c>
       <c r="U7" t="n">
-        <v>9586.200000000001</v>
+        <v>10376.40688</v>
       </c>
       <c r="V7" t="n">
-        <v>6259.1</v>
+        <v>7549.471930000001</v>
       </c>
       <c r="W7" t="n">
         <v>900</v>
@@ -7561,8 +7577,16 @@
       <c r="AI7" t="n">
         <v>0</v>
       </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>21,22823;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>21,11411;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL7" t="n">
         <v>117859.5374</v>
       </c>
@@ -7582,10 +7606,10 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>23080.26449094</v>
       </c>
       <c r="AS7" t="n">
-        <v>166153.5374</v>
+        <v>189233.80189094</v>
       </c>
     </row>
     <row r="8">
@@ -7649,13 +7673,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>59562.50129160001</v>
+        <v>79979.89813448</v>
       </c>
       <c r="U8" t="n">
-        <v>9620.3379</v>
+        <v>11200.75166</v>
       </c>
       <c r="V8" t="n">
-        <v>6281.6255</v>
+        <v>8862.819869999999</v>
       </c>
       <c r="W8" t="n">
         <v>900</v>
@@ -7696,8 +7720,16 @@
       <c r="AI8" t="n">
         <v>0</v>
       </c>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>21,45648;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>21,22823;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL8" t="n">
         <v>117859.5374</v>
       </c>
@@ -7717,10 +7749,10 @@
         <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>46164.11941438</v>
       </c>
       <c r="AS8" t="n">
-        <v>166867.6794266</v>
+        <v>213031.79884098</v>
       </c>
     </row>
     <row r="9">
@@ -7919,13 +7951,13 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>250415.0567766</v>
+        <v>261395.05372204</v>
       </c>
       <c r="U10" t="n">
-        <v>39080.991648</v>
+        <v>39929.71039360001</v>
       </c>
       <c r="V10" t="n">
-        <v>30664.4757005</v>
+        <v>32038.98151693</v>
       </c>
       <c r="W10" t="n">
         <v>1940</v>
@@ -7966,8 +7998,16 @@
       <c r="AI10" t="n">
         <v>0</v>
       </c>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>21,25138;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>21,12569;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL10" t="n">
         <v>536406.9315750001</v>
       </c>
@@ -7987,10 +8027,10 @@
         <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>24739.5647345525</v>
       </c>
       <c r="AS10" t="n">
-        <v>707707.634425675</v>
+        <v>732447.1991602276</v>
       </c>
     </row>
     <row r="11">
@@ -8054,13 +8094,13 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>266309.6505426</v>
+        <v>321211.6352698</v>
       </c>
       <c r="U11" t="n">
-        <v>40519.468128</v>
+        <v>44765.061856</v>
       </c>
       <c r="V11" t="n">
-        <v>31868.0317055</v>
+        <v>38745.37501167</v>
       </c>
       <c r="W11" t="n">
         <v>1940</v>
@@ -8101,8 +8141,16 @@
       <c r="AI11" t="n">
         <v>0</v>
       </c>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>21,125697;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>21,62848;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL11" t="n">
         <v>536406.9315750001</v>
       </c>
@@ -8122,10 +8170,10 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>123741.3054608775</v>
       </c>
       <c r="AS11" t="n">
-        <v>740885.662932425</v>
+        <v>864626.9683933025</v>
       </c>
     </row>
     <row r="12">
@@ -8189,13 +8237,13 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>282204.2443086</v>
+        <v>337106.2290358</v>
       </c>
       <c r="U12" t="n">
-        <v>41957.944608</v>
+        <v>46203.538336</v>
       </c>
       <c r="V12" t="n">
-        <v>33071.5877105</v>
+        <v>39948.93101666999</v>
       </c>
       <c r="W12" t="n">
         <v>1940</v>
@@ -8236,8 +8284,16 @@
       <c r="AI12" t="n">
         <v>0</v>
       </c>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>21,125697;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>21,62848;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL12" t="n">
         <v>536406.9315750001</v>
       </c>
@@ -8257,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>123741.3054608775</v>
       </c>
       <c r="AS12" t="n">
-        <v>774063.691439175</v>
+        <v>897804.9969000524</v>
       </c>
     </row>
     <row r="13">
@@ -8324,13 +8380,13 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>298098.8380746</v>
+        <v>406649.90068746</v>
       </c>
       <c r="U13" t="n">
-        <v>43396.421088</v>
+        <v>51791.710112</v>
       </c>
       <c r="V13" t="n">
-        <v>34275.1437155</v>
+        <v>47903.25339131001</v>
       </c>
       <c r="W13" t="n">
         <v>1940</v>
@@ -8371,8 +8427,16 @@
       <c r="AI13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>21,247687;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>21,123843;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL13" t="n">
         <v>536406.9315750001</v>
       </c>
@@ -8392,10 +8456,10 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>244840.1875143675</v>
       </c>
       <c r="AS13" t="n">
-        <v>807241.7199459249</v>
+        <v>1052081.907460293</v>
       </c>
     </row>
     <row r="14">
@@ -8459,13 +8523,13 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>298098.8380746</v>
+        <v>353000.8228018</v>
       </c>
       <c r="U14" t="n">
-        <v>43396.421088</v>
+        <v>47642.014816</v>
       </c>
       <c r="V14" t="n">
-        <v>34275.1437155</v>
+        <v>41152.48702167</v>
       </c>
       <c r="W14" t="n">
         <v>1940</v>
@@ -8506,8 +8570,16 @@
       <c r="AI14" t="n">
         <v>0</v>
       </c>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>21,125697;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>21,62848;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL14" t="n">
         <v>536406.9315750001</v>
       </c>
@@ -8527,10 +8599,10 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>123741.3054608775</v>
       </c>
       <c r="AS14" t="n">
-        <v>807003.7199459249</v>
+        <v>930745.0254068025</v>
       </c>
     </row>
     <row r="15">
@@ -8594,13 +8666,13 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>446010.09828</v>
+        <v>514856.086632</v>
       </c>
       <c r="U15" t="n">
-        <v>64864.6704512</v>
+        <v>70187.80643584</v>
       </c>
       <c r="V15" t="n">
-        <v>58818.659202</v>
+        <v>67500.74111124</v>
       </c>
       <c r="W15" t="n">
         <v>1940</v>
@@ -8641,8 +8713,16 @@
       <c r="AI15" t="n">
         <v>0</v>
       </c>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>21,159699;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>21,79836;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL15" t="n">
         <v>828489.0359400001</v>
       </c>
@@ -8662,10 +8742,10 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>155497.597624146</v>
       </c>
       <c r="AS15" t="n">
-        <v>1244647.11480478</v>
+        <v>1400144.712428926</v>
       </c>
     </row>
     <row r="16">
@@ -8729,13 +8809,13 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>446010.09828</v>
+        <v>526329.918024</v>
       </c>
       <c r="U16" t="n">
-        <v>64864.6704512</v>
+        <v>71074.66243328</v>
       </c>
       <c r="V16" t="n">
-        <v>58818.659202</v>
+        <v>68945.73161736</v>
       </c>
       <c r="W16" t="n">
         <v>1940</v>
@@ -8776,8 +8856,16 @@
       <c r="AI16" t="n">
         <v>0</v>
       </c>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>21,186347;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>21,93173;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL16" t="n">
         <v>828489.0359400001</v>
       </c>
@@ -8797,10 +8885,10 @@
         <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>181399.430808672</v>
       </c>
       <c r="AS16" t="n">
-        <v>1244885.11480478</v>
+        <v>1426284.545613452</v>
       </c>
     </row>
     <row r="17">
@@ -8864,13 +8952,13 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1127021.0284677</v>
+        <v>1232848.14258453</v>
       </c>
       <c r="U17" t="n">
-        <v>156319.3446122</v>
+        <v>164501.46836224</v>
       </c>
       <c r="V17" t="n">
-        <v>174226.1745</v>
+        <v>187879.76668</v>
       </c>
       <c r="W17" t="n">
         <v>1940</v>
@@ -8911,8 +8999,16 @@
       <c r="AI17" t="n">
         <v>0</v>
       </c>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>21,255065;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>21,127385;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL17" t="n">
         <v>1905342.86814</v>
       </c>
@@ -8932,10 +9028,10 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>240791.923027106</v>
       </c>
       <c r="AS17" t="n">
-        <v>3221478.50966688</v>
+        <v>3462270.432693986</v>
       </c>
     </row>
     <row r="18">
@@ -8999,13 +9095,13 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5676043.0917912</v>
+        <v>5954013.70053912</v>
       </c>
       <c r="U18" t="n">
-        <v>845534.2596368</v>
+        <v>867052.1406832</v>
       </c>
       <c r="V18" t="n">
-        <v>845136.5998985</v>
+        <v>880544.07007697</v>
       </c>
       <c r="W18" t="n">
         <v>1940</v>
@@ -9046,8 +9142,16 @@
       <c r="AI18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>21,756985;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>21,378492;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL18" t="n">
         <v>11599639.496285</v>
       </c>
@@ -9067,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>630036.9414942825</v>
       </c>
       <c r="AS18" t="n">
-        <v>16385722.4327015</v>
+        <v>17015759.37419578</v>
       </c>
     </row>
     <row r="19">
@@ -9134,13 +9238,13 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>9378207.378939599</v>
+        <v>9656177.987687519</v>
       </c>
       <c r="U19" t="n">
-        <v>1394116.5597072</v>
+        <v>1415634.4407536</v>
       </c>
       <c r="V19" t="n">
-        <v>1389716.907302</v>
+        <v>1425124.37748047</v>
       </c>
       <c r="W19" t="n">
         <v>1940</v>
@@ -9181,8 +9285,16 @@
       <c r="AI19" t="n">
         <v>0</v>
       </c>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>21,756985;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>21,378492;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL19" t="n">
         <v>18819167.97654</v>
       </c>
@@ -9202,10 +9314,10 @@
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>630036.9414942825</v>
       </c>
       <c r="AS19" t="n">
-        <v>27007535.35790578</v>
+        <v>27637572.29940006</v>
       </c>
     </row>
     <row r="20">
@@ -9269,13 +9381,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>217815.2046249</v>
+        <v>223833.56082179</v>
       </c>
       <c r="U20" t="n">
-        <v>39413.4391168</v>
+        <v>39917.65118464</v>
       </c>
       <c r="V20" t="n">
-        <v>26456.0623</v>
+        <v>27046.920048</v>
       </c>
       <c r="W20" t="n">
         <v>900</v>
@@ -9316,8 +9428,16 @@
       <c r="AI20" t="n">
         <v>0</v>
       </c>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>21,14055;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>21,6981;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL20" t="n">
         <v>563822.84686</v>
       </c>
@@ -9337,10 +9457,10 @@
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>12894.851515986</v>
       </c>
       <c r="AS20" t="n">
-        <v>646695.79275582</v>
+        <v>659590.6442718061</v>
       </c>
     </row>
     <row r="21">
@@ -9404,13 +9524,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>293804.2665354</v>
+        <v>301824.10967648</v>
       </c>
       <c r="U21" t="n">
-        <v>48368.4300113</v>
+        <v>49016.90138438</v>
       </c>
       <c r="V21" t="n">
-        <v>37016.281525</v>
+        <v>37869.972463</v>
       </c>
       <c r="W21" t="n">
         <v>1100</v>
@@ -9451,8 +9571,16 @@
       <c r="AI21" t="n">
         <v>0</v>
       </c>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>21,19454;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>21,9726;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL21" t="n">
         <v>670348.08591</v>
       </c>
@@ -9472,10 +9600,10 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>17403.018508832</v>
       </c>
       <c r="AS21" t="n">
-        <v>847742.3023821199</v>
+        <v>865145.320890952</v>
       </c>
     </row>
     <row r="22">
@@ -9539,13 +9667,13 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>421169.1144754</v>
+        <v>436107.89798524</v>
       </c>
       <c r="U22" t="n">
-        <v>63608.0313843</v>
+        <v>64767.241827</v>
       </c>
       <c r="V22" t="n">
-        <v>55441.0769435</v>
+        <v>57232.4266828</v>
       </c>
       <c r="W22" t="n">
         <v>1940</v>
@@ -9586,8 +9714,16 @@
       <c r="AI22" t="n">
         <v>0</v>
       </c>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>21,38419;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>21,19141;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL22" t="n">
         <v>852054.1961850001</v>
       </c>
@@ -9607,10 +9743,10 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>0</v>
+        <v>33237.596565445</v>
       </c>
       <c r="AS22" t="n">
-        <v>1191038.723452195</v>
+        <v>1224276.32001764</v>
       </c>
     </row>
     <row r="23">
@@ -9674,13 +9810,13 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>493254.03706</v>
+        <v>512913.620462</v>
       </c>
       <c r="U23" t="n">
-        <v>73314.1061776</v>
+        <v>74835.72869696</v>
       </c>
       <c r="V23" t="n">
-        <v>66558.892289</v>
+        <v>68971.30677807999</v>
       </c>
       <c r="W23" t="n">
         <v>1940</v>
@@ -9721,8 +9857,16 @@
       <c r="AI23" t="n">
         <v>0</v>
       </c>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,51548;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,25699;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL23" t="n">
         <v>931261.7875700002</v>
       </c>
@@ -9742,10 +9886,10 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>44030.162097794</v>
       </c>
       <c r="AS23" t="n">
-        <v>1394936.50034719</v>
+        <v>1438966.662444984</v>
       </c>
     </row>
     <row r="24">
@@ -9809,13 +9953,13 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>569412.9736299999</v>
+        <v>593032.8300539999</v>
       </c>
       <c r="U24" t="n">
-        <v>86311.52018390001</v>
+        <v>88137.79577766001</v>
       </c>
       <c r="V24" t="n">
-        <v>82301.3549835</v>
+        <v>85269.43566878</v>
       </c>
       <c r="W24" t="n">
         <v>1940</v>
@@ -9856,8 +10000,16 @@
       <c r="AI24" t="n">
         <v>0</v>
       </c>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>21,62604;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>21,31302;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL24" t="n">
         <v>1056119.767355</v>
       </c>
@@ -9877,10 +10029,10 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>53287.621961304</v>
       </c>
       <c r="AS24" t="n">
-        <v>1652248.754054035</v>
+        <v>1705536.376015339</v>
       </c>
     </row>
     <row r="25">
@@ -9944,13 +10096,13 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>725502.1365124</v>
+        <v>757896.20037124</v>
       </c>
       <c r="U25" t="n">
-        <v>113024.6163216</v>
+        <v>115532.0195184</v>
       </c>
       <c r="V25" t="n">
-        <v>114170.7835705</v>
+        <v>118383.04915841</v>
       </c>
       <c r="W25" t="n">
         <v>1940</v>
@@ -9991,8 +10143,16 @@
       <c r="AI25" t="n">
         <v>0</v>
       </c>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>21,87669;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>21,43834;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL25" t="n">
         <v>1315078.364445</v>
       </c>
@@ -10012,10 +10172,10 @@
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>0</v>
+        <v>73915.6730472425</v>
       </c>
       <c r="AS25" t="n">
-        <v>2177811.494661815</v>
+        <v>2251727.167709058</v>
       </c>
     </row>
   </sheetData>

--- a/opm_hero_property/heroes/31.xlsx
+++ b/opm_hero_property/heroes/31.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6739,40 +6739,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -6812,7 +6832,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>31</v>
@@ -6839,13 +6859,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5954013.70053912</v>
+        <v>6827906.21996312</v>
       </c>
       <c r="U2" t="n">
-        <v>867052.1406832</v>
+        <v>1024696.2589552</v>
       </c>
       <c r="V2" t="n">
-        <v>880544.07007697</v>
+        <v>1023513.70037297</v>
       </c>
       <c r="W2" t="n">
         <v>1940</v>
@@ -6884,7 +6904,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -6897,28 +6917,36 @@
         </is>
       </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11599639.496285</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>2180389.636416495</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2010530</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>2938435.1597028</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1855807.15</v>
+      </c>
+      <c r="AU2" t="n">
         <v>630036.9414942825</v>
       </c>
-      <c r="AS2" t="n">
-        <v>17015759.37419578</v>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>19799471.68389858</v>
       </c>
     </row>
     <row r="3">
@@ -6955,7 +6983,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>31</v>
@@ -6982,13 +7010,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>757896.20037124</v>
+        <v>856311.2128192401</v>
       </c>
       <c r="U3" t="n">
-        <v>115532.0195184</v>
+        <v>133284.7459824</v>
       </c>
       <c r="V3" t="n">
-        <v>118383.04915841</v>
+        <v>134818.82204641</v>
       </c>
       <c r="W3" t="n">
         <v>1940</v>
@@ -7027,7 +7055,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -7040,28 +7068,36 @@
         </is>
       </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1315078.364445</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>247958.280216815</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>431854.8</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
+        <v>536995.0691556</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>210274.25</v>
+      </c>
+      <c r="AU3" t="n">
         <v>73915.6730472425</v>
       </c>
-      <c r="AS3" t="n">
-        <v>2251727.167709058</v>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2567141.686864657</v>
       </c>
     </row>
     <row r="4">
@@ -7098,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>31</v>
@@ -7125,13 +7161,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7739.552799999999</v>
+        <v>8199.552799999999</v>
       </c>
       <c r="U4" t="n">
-        <v>1541.9754</v>
+        <v>1624.9754</v>
       </c>
       <c r="V4" t="n">
-        <v>626.414</v>
+        <v>701.414</v>
       </c>
       <c r="W4" t="n">
         <v>550</v>
@@ -7170,25 +7206,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>19211.66356</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4498.9</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7196,7 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23710.56356</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1463.95</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>25174.51356</v>
       </c>
     </row>
     <row r="5">
@@ -7233,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>31</v>
@@ -7260,13 +7304,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>20678.4408</v>
+        <v>34206.4408</v>
       </c>
       <c r="U5" t="n">
-        <v>3842.5448</v>
+        <v>6282.5448</v>
       </c>
       <c r="V5" t="n">
-        <v>1923.714</v>
+        <v>4136.714</v>
       </c>
       <c r="W5" t="n">
         <v>638</v>
@@ -7305,25 +7349,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>49043.25542</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11906.8</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7331,7 +7371,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>60950.05542</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>43088.75</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>104038.80542</v>
       </c>
     </row>
     <row r="6">
@@ -7368,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>31</v>
@@ -7395,13 +7447,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>59213.43240000001</v>
+        <v>117210.4324</v>
       </c>
       <c r="U6" t="n">
-        <v>9586.200000000001</v>
+        <v>20048.2</v>
       </c>
       <c r="V6" t="n">
-        <v>6259.1</v>
+        <v>15747.1</v>
       </c>
       <c r="W6" t="n">
         <v>900</v>
@@ -7440,33 +7492,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>117859.5374</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9157</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>165915.5374</v>
+      <c r="AT6" t="n">
+        <v>184740.8</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>350656.3374</v>
       </c>
     </row>
     <row r="7">
@@ -7503,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>31</v>
@@ -7530,13 +7590,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>69421.63082144001</v>
+        <v>127418.63082144</v>
       </c>
       <c r="U7" t="n">
-        <v>10376.40688</v>
+        <v>20838.40688</v>
       </c>
       <c r="V7" t="n">
-        <v>7549.471930000001</v>
+        <v>17037.47193</v>
       </c>
       <c r="W7" t="n">
         <v>900</v>
@@ -7575,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -7588,28 +7648,36 @@
         </is>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>117859.5374</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9395</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
+        <v>184740.8</v>
+      </c>
+      <c r="AU7" t="n">
         <v>23080.26449094</v>
       </c>
-      <c r="AS7" t="n">
-        <v>189233.80189094</v>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>373974.60189094</v>
       </c>
     </row>
     <row r="8">
@@ -7646,7 +7714,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>31</v>
@@ -7673,13 +7741,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>79979.89813448</v>
+        <v>137976.89813448</v>
       </c>
       <c r="U8" t="n">
-        <v>11200.75166</v>
+        <v>21662.75166</v>
       </c>
       <c r="V8" t="n">
-        <v>8862.819869999999</v>
+        <v>18350.81987</v>
       </c>
       <c r="W8" t="n">
         <v>900</v>
@@ -7718,7 +7786,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -7731,28 +7799,36 @@
         </is>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>117859.5374</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>714.1420266000002</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9395</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
+        <v>184740.8</v>
+      </c>
+      <c r="AU8" t="n">
         <v>46164.11941438</v>
       </c>
-      <c r="AS8" t="n">
-        <v>213031.79884098</v>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>397772.59884098</v>
       </c>
     </row>
     <row r="9">
@@ -7789,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>31</v>
@@ -7816,31 +7892,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>248825.5974</v>
+        <v>423278.663374</v>
       </c>
       <c r="U9" t="n">
-        <v>38937.144</v>
+        <v>68714.80544</v>
       </c>
       <c r="V9" t="n">
-        <v>30544.1201</v>
+        <v>57072.831301</v>
       </c>
       <c r="W9" t="n">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="X9" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="AA9" t="n">
-        <v>2880</v>
+        <v>2890</v>
       </c>
       <c r="AB9" t="n">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7861,33 +7937,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>536406.9315750001</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>704433.5815750001</v>
+        <v>44101.81931575001</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>432875.6</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.59999999995</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1237012.60089075</v>
       </c>
     </row>
     <row r="10">
@@ -7924,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>31</v>
@@ -7951,31 +8035,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>261395.05372204</v>
+        <v>493290.3458505687</v>
       </c>
       <c r="U10" t="n">
-        <v>39929.71039360001</v>
+        <v>78938.40521960962</v>
       </c>
       <c r="V10" t="n">
-        <v>32038.98151693</v>
+        <v>65119.11118685274</v>
       </c>
       <c r="W10" t="n">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="X10" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="AA10" t="n">
-        <v>2880</v>
+        <v>2890</v>
       </c>
       <c r="AB10" t="n">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -7996,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -8009,28 +8093,40 @@
         </is>
       </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>536406.9315750001</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>3274.052850675</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>44101.81931575001</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>432875.6</v>
+      </c>
+      <c r="AU10" t="n">
         <v>24739.5647345525</v>
       </c>
-      <c r="AS10" t="n">
-        <v>732447.1991602276</v>
+      <c r="AV10" t="n">
+        <v>253154.6127143008</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1423833.231190278</v>
       </c>
     </row>
     <row r="11">
@@ -8067,7 +8163,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>31</v>
@@ -8094,31 +8190,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>321211.6352698</v>
+        <v>618358.3458661884</v>
       </c>
       <c r="U11" t="n">
-        <v>44765.061856</v>
+        <v>92658.51733465602</v>
       </c>
       <c r="V11" t="n">
-        <v>38745.37501167</v>
+        <v>79072.21976449805</v>
       </c>
       <c r="W11" t="n">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="X11" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="AA11" t="n">
-        <v>2880</v>
+        <v>2890</v>
       </c>
       <c r="AB11" t="n">
-        <v>2260</v>
+        <v>2300</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8139,7 +8235,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -8152,28 +8248,40 @@
         </is>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>536406.9315750001</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>36452.081357425</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
+        <v>44101.81931575001</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>432875.6</v>
+      </c>
+      <c r="AU11" t="n">
         <v>123741.3054608775</v>
       </c>
-      <c r="AS11" t="n">
-        <v>864626.9683933025</v>
+      <c r="AV11" t="n">
+        <v>421379.4914121262</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1724237.879121179</v>
       </c>
     </row>
     <row r="12">
@@ -8210,7 +8318,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>31</v>
@@ -8237,31 +8345,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>337106.2290358</v>
+        <v>717043.4962050057</v>
       </c>
       <c r="U12" t="n">
-        <v>46203.538336</v>
+        <v>103567.380971296</v>
       </c>
       <c r="V12" t="n">
-        <v>39948.93101666999</v>
+        <v>91310.08719081215</v>
       </c>
       <c r="W12" t="n">
-        <v>1940</v>
+        <v>1960</v>
       </c>
       <c r="X12" t="n">
-        <v>930</v>
+        <v>950</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="AA12" t="n">
-        <v>2880</v>
+        <v>2900</v>
       </c>
       <c r="AB12" t="n">
-        <v>2510</v>
+        <v>2590</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8282,7 +8390,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -8295,28 +8403,40 @@
         </is>
       </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>536406.9315750001</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>69630.109864175</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
+        <v>44101.81931575001</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>432875.6</v>
+      </c>
+      <c r="AU12" t="n">
         <v>123741.3054608775</v>
       </c>
-      <c r="AS12" t="n">
-        <v>897804.9969000524</v>
+      <c r="AV12" t="n">
+        <v>633083.0100383153</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1969119.426254118</v>
       </c>
     </row>
     <row r="13">
@@ -8353,7 +8473,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>31</v>
@@ -8380,31 +8500,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>406649.90068746</v>
+        <v>884119.6009613506</v>
       </c>
       <c r="U13" t="n">
-        <v>51791.710112</v>
+        <v>122121.168354592</v>
       </c>
       <c r="V13" t="n">
-        <v>47903.25339131001</v>
+        <v>110451.963105187</v>
       </c>
       <c r="W13" t="n">
-        <v>1940</v>
+        <v>1990</v>
       </c>
       <c r="X13" t="n">
-        <v>930</v>
+        <v>980</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="AA13" t="n">
-        <v>2880</v>
+        <v>2930</v>
       </c>
       <c r="AB13" t="n">
-        <v>2760</v>
+        <v>2960</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8425,7 +8545,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -8438,28 +8558,40 @@
         </is>
       </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>536406.9315750001</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>102808.138370925</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>38746</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
+        <v>44101.81931575001</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>432875.6</v>
+      </c>
+      <c r="AU13" t="n">
         <v>244840.1875143675</v>
       </c>
-      <c r="AS13" t="n">
-        <v>1052081.907460293</v>
+      <c r="AV13" t="n">
+        <v>884766.6236868182</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2375079.950462861</v>
       </c>
     </row>
     <row r="14">
@@ -8496,7 +8628,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>31</v>
@@ -8523,31 +8655,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>353000.8228018</v>
+        <v>962388.7634370384</v>
       </c>
       <c r="U14" t="n">
-        <v>47642.014816</v>
+        <v>132714.164486144</v>
       </c>
       <c r="V14" t="n">
-        <v>41152.48702167</v>
+        <v>113689.8029800141</v>
       </c>
       <c r="W14" t="n">
-        <v>1940</v>
+        <v>1990</v>
       </c>
       <c r="X14" t="n">
-        <v>860</v>
+        <v>910</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="AA14" t="n">
-        <v>2880</v>
+        <v>2930</v>
       </c>
       <c r="AB14" t="n">
-        <v>2690</v>
+        <v>2890</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8568,7 +8700,7 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -8581,28 +8713,40 @@
         </is>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>536406.9315750001</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>102808.138370925</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>38508</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
+        <v>43863.81931575001</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>432875.6</v>
+      </c>
+      <c r="AU14" t="n">
         <v>123741.3054608775</v>
       </c>
-      <c r="AS14" t="n">
-        <v>930745.0254068025</v>
+      <c r="AV14" t="n">
+        <v>1175843.920803961</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2544820.365526513</v>
       </c>
     </row>
     <row r="15">
@@ -8639,7 +8783,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>31</v>
@@ -8666,31 +8810,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>514856.086632</v>
+        <v>1517233.235292376</v>
       </c>
       <c r="U15" t="n">
-        <v>70187.80643584</v>
+        <v>222146.9155301888</v>
       </c>
       <c r="V15" t="n">
-        <v>67500.74111124</v>
+        <v>192975.8592482473</v>
       </c>
       <c r="W15" t="n">
-        <v>1940</v>
+        <v>2040</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>720</v>
+        <v>820</v>
       </c>
       <c r="AA15" t="n">
-        <v>2880</v>
+        <v>2980</v>
       </c>
       <c r="AB15" t="n">
-        <v>2830</v>
+        <v>3230</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -8711,7 +8855,7 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -8724,28 +8868,40 @@
         </is>
       </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>828489.0359400001</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>157316.27886478</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>111462</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
+        <v>128015.2807188</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>792026.2</v>
+      </c>
+      <c r="AU15" t="n">
         <v>155497.597624146</v>
       </c>
-      <c r="AS15" t="n">
-        <v>1400144.712428926</v>
+      <c r="AV15" t="n">
+        <v>1964997.449980374</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4173721.643128101</v>
       </c>
     </row>
     <row r="16">
@@ -8782,7 +8938,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>31</v>
@@ -8809,31 +8965,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>526329.918024</v>
+        <v>1557742.133345016</v>
       </c>
       <c r="U16" t="n">
-        <v>71074.66243328</v>
+        <v>227213.7841793741</v>
       </c>
       <c r="V16" t="n">
-        <v>68945.73161736</v>
+        <v>197974.7441826962</v>
       </c>
       <c r="W16" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X16" t="n">
-        <v>1070</v>
+        <v>1270</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA16" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB16" t="n">
-        <v>2900</v>
+        <v>3700</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -8854,7 +9010,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -8867,28 +9023,40 @@
         </is>
       </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>828489.0359400001</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>157316.27886478</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>111700</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>128253.2807188</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>792026.2</v>
+      </c>
+      <c r="AU16" t="n">
         <v>181399.430808672</v>
       </c>
-      <c r="AS16" t="n">
-        <v>1426284.545613452</v>
+      <c r="AV16" t="n">
+        <v>2044509.496900948</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4279373.5232332</v>
       </c>
     </row>
     <row r="17">
@@ -8925,7 +9093,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>31</v>
@@ -8952,31 +9120,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1232848.14258453</v>
+        <v>2847941.422195961</v>
       </c>
       <c r="U17" t="n">
-        <v>164501.46836224</v>
+        <v>401336.3073330893</v>
       </c>
       <c r="V17" t="n">
-        <v>187879.76668</v>
+        <v>394630.51743296</v>
       </c>
       <c r="W17" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X17" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA17" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB17" t="n">
-        <v>3180</v>
+        <v>3980</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -8997,7 +9165,7 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -9010,28 +9178,40 @@
         </is>
       </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1905342.86814</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>357989.29152688</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>688289.2</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
+        <v>764469.9147256</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1265461.35</v>
+      </c>
+      <c r="AU17" t="n">
         <v>240791.923027106</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3462270.432693986</v>
+      <c r="AV17" t="n">
+        <v>3098828.420614211</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7902740.918033797</v>
       </c>
     </row>
     <row r="18">
@@ -9068,7 +9248,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>31</v>
@@ -9095,31 +9275,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5954013.70053912</v>
+        <v>10111577.92979678</v>
       </c>
       <c r="U18" t="n">
-        <v>867052.1406832</v>
+        <v>1414154.017511913</v>
       </c>
       <c r="V18" t="n">
-        <v>880544.07007697</v>
+        <v>1367450.06101698</v>
       </c>
       <c r="W18" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X18" t="n">
-        <v>1910</v>
+        <v>2110</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA18" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB18" t="n">
-        <v>3740</v>
+        <v>4540</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9140,7 +9320,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -9153,28 +9333,40 @@
         </is>
       </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11599639.496285</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>2180389.636416495</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2010530</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
+        <v>2938435.1597028</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1855807.15</v>
+      </c>
+      <c r="AU18" t="n">
         <v>630036.9414942825</v>
       </c>
-      <c r="AS18" t="n">
-        <v>17015759.37419578</v>
+      <c r="AV18" t="n">
+        <v>7950964.317578038</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>27750436.00147662</v>
       </c>
     </row>
     <row r="19">
@@ -9211,7 +9403,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>31</v>
@@ -9238,31 +9430,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>9656177.987687519</v>
+        <v>17229419.25117626</v>
       </c>
       <c r="U19" t="n">
-        <v>1415634.4407536</v>
+        <v>2531075.090315622</v>
       </c>
       <c r="V19" t="n">
-        <v>1425124.37748047</v>
+        <v>2420789.903020716</v>
       </c>
       <c r="W19" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X19" t="n">
-        <v>2820</v>
+        <v>3020</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA19" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB19" t="n">
-        <v>4650</v>
+        <v>5450</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9283,7 +9475,7 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -9296,28 +9488,40 @@
         </is>
       </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>18819167.97654</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>3538494.38136578</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3474140.2</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
+        <v>6296891.646481</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1855807.15</v>
+      </c>
+      <c r="AU19" t="n">
         <v>630036.9414942825</v>
       </c>
-      <c r="AS19" t="n">
-        <v>27637572.29940006</v>
+      <c r="AV19" t="n">
+        <v>16318699.92084211</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>48634830.81672317</v>
       </c>
     </row>
     <row r="20">
@@ -9354,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>31</v>
@@ -9381,13 +9585,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>223833.56082179</v>
+        <v>230364.56082179</v>
       </c>
       <c r="U20" t="n">
-        <v>39917.65118464</v>
+        <v>41095.65118464</v>
       </c>
       <c r="V20" t="n">
-        <v>27046.920048</v>
+        <v>28136.920048</v>
       </c>
       <c r="W20" t="n">
         <v>900</v>
@@ -9426,7 +9630,7 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -9439,28 +9643,36 @@
         </is>
       </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>563822.84686</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>3423.14589582</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>32014.4</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
+        <v>20926.7</v>
+      </c>
+      <c r="AU20" t="n">
         <v>12894.851515986</v>
       </c>
-      <c r="AS20" t="n">
-        <v>659590.6442718061</v>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>680517.3442718061</v>
       </c>
     </row>
     <row r="21">
@@ -9497,7 +9709,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>31</v>
@@ -9524,13 +9736,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>301824.10967648</v>
+        <v>315318.21492248</v>
       </c>
       <c r="U21" t="n">
-        <v>49016.90138438</v>
+        <v>51469.16655838</v>
       </c>
       <c r="V21" t="n">
-        <v>37869.972463</v>
+        <v>40060.250013</v>
       </c>
       <c r="W21" t="n">
         <v>1100</v>
@@ -9569,7 +9781,7 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -9582,28 +9794,36 @@
         </is>
       </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>670348.08591</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49107.75</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>45229.56647212</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>64028.8</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
+        <v>70724.03085909999</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>36313.6</v>
+      </c>
+      <c r="AU21" t="n">
         <v>17403.018508832</v>
       </c>
-      <c r="AS21" t="n">
-        <v>865145.320890952</v>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>908154.1517500521</v>
       </c>
     </row>
     <row r="22">
@@ -9640,7 +9860,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>31</v>
@@ -9667,31 +9887,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>436107.89798524</v>
+        <v>566315.6197309379</v>
       </c>
       <c r="U22" t="n">
-        <v>64767.241827</v>
+        <v>83180.59688028101</v>
       </c>
       <c r="V22" t="n">
-        <v>57232.4266828</v>
+        <v>73308.1018491032</v>
       </c>
       <c r="W22" t="n">
-        <v>1940</v>
+        <v>1990</v>
       </c>
       <c r="X22" t="n">
-        <v>930</v>
+        <v>980</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="AA22" t="n">
-        <v>2880</v>
+        <v>2930</v>
       </c>
       <c r="AB22" t="n">
-        <v>2510</v>
+        <v>2710</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -9712,7 +9932,7 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -9725,28 +9945,40 @@
         </is>
       </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>852054.1961850001</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>109547.027267195</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>91895.2</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
+        <v>100407.49196185</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>49039.25</v>
+      </c>
+      <c r="AU22" t="n">
         <v>33237.596565445</v>
       </c>
-      <c r="AS22" t="n">
-        <v>1224276.32001764</v>
+      <c r="AV22" t="n">
+        <v>292743.4618577301</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1574571.32383722</v>
       </c>
     </row>
     <row r="23">
@@ -9783,7 +10015,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>31</v>
@@ -9810,31 +10042,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>512913.620462</v>
+        <v>737378.4160982519</v>
       </c>
       <c r="U23" t="n">
-        <v>74835.72869696</v>
+        <v>109534.1565527443</v>
       </c>
       <c r="V23" t="n">
-        <v>68971.30677807999</v>
+        <v>97470.96000901343</v>
       </c>
       <c r="W23" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X23" t="n">
-        <v>1070</v>
+        <v>1270</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA23" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB23" t="n">
-        <v>2900</v>
+        <v>3700</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -9855,7 +10087,7 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -9868,28 +10100,40 @@
         </is>
       </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>931261.7875700002</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>176481.46277719</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>142670</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
+        <v>161278.7357514</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>89739.89999999999</v>
+      </c>
+      <c r="AU23" t="n">
         <v>44030.162097794</v>
       </c>
-      <c r="AS23" t="n">
-        <v>1438966.662444984</v>
+      <c r="AV23" t="n">
+        <v>521808.3181676311</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2069123.616364015</v>
       </c>
     </row>
     <row r="24">
@@ -9926,7 +10170,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>31</v>
@@ -9953,31 +10197,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>593032.8300539999</v>
+        <v>925152.285340844</v>
       </c>
       <c r="U24" t="n">
-        <v>88137.79577766001</v>
+        <v>139802.9873171316</v>
       </c>
       <c r="V24" t="n">
-        <v>85269.43566878</v>
+        <v>129167.8035154907</v>
       </c>
       <c r="W24" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X24" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA24" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB24" t="n">
-        <v>3180</v>
+        <v>3980</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -9998,7 +10242,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -10011,28 +10255,40 @@
         </is>
       </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1056119.767355</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>199728.736699035</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>239067.6</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>281279.3906942</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>143380.25</v>
+      </c>
+      <c r="AU24" t="n">
         <v>53287.621961304</v>
       </c>
-      <c r="AS24" t="n">
-        <v>1705536.376015339</v>
+      <c r="AV24" t="n">
+        <v>757832.851333585</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2648961.268043124</v>
       </c>
     </row>
     <row r="25">
@@ -10069,7 +10325,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>31</v>
@@ -10096,31 +10352,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>757896.20037124</v>
+        <v>1577838.316675029</v>
       </c>
       <c r="U25" t="n">
-        <v>115532.0195184</v>
+        <v>234503.2778802864</v>
       </c>
       <c r="V25" t="n">
-        <v>118383.04915841</v>
+        <v>227201.5362129696</v>
       </c>
       <c r="W25" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X25" t="n">
-        <v>1910</v>
+        <v>2110</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="AA25" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB25" t="n">
-        <v>3740</v>
+        <v>4540</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -10141,7 +10397,7 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -10154,28 +10410,40 @@
         </is>
       </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1315078.364445</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>247958.280216815</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>431854.8</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
+        <v>536995.0691556</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>210274.25</v>
+      </c>
+      <c r="AU25" t="n">
         <v>73915.6730472425</v>
       </c>
-      <c r="AS25" t="n">
-        <v>2251727.167709058</v>
+      <c r="AV25" t="n">
+        <v>1953535.580408923</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4520677.267273581</v>
       </c>
     </row>
   </sheetData>
